--- a/Uploads/Data/COLL_REPRO_TEMPLATE.xlsx
+++ b/Uploads/Data/COLL_REPRO_TEMPLATE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Erica.Williams\Documents\GitHub\SQL-Database-Corrections\Uploads\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A773CC23-1738-433B-A790-6656EC76A284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59E74AD-825D-437E-B98B-6A2266D179C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2108D022-863A-4DDA-9361-349A7F55884E}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5087" uniqueCount="627">
   <si>
     <t>DataStatus</t>
   </si>
@@ -1928,10 +1928,19 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Entered</t>
-  </si>
-  <si>
-    <t>Erica Williams</t>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>1=mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing slide </t>
+  </si>
+  <si>
+    <t>0=imm</t>
   </si>
 </sst>
 </file>
@@ -2064,9 +2073,6 @@
   </cellStyles>
   <dxfs count="61">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2169,6 +2175,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -2284,8 +2293,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:Q81" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
-  <autoFilter ref="A8:Q81" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}" name="Table2" displayName="Table2" ref="A8:Q38" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+  <autoFilter ref="A8:Q38" xr:uid="{43680372-C358-4A72-8CFD-1BFF395B8C69}"/>
   <tableColumns count="17">
     <tableColumn id="20" xr3:uid="{FC1F9811-332A-4FBC-A60F-2ABD60672380}" name="DataType" dataDxfId="58"/>
     <tableColumn id="1" xr3:uid="{144FE1A1-5D1F-48A8-B4E0-C6821BF0BD54}" name="Date" dataDxfId="57"/>
@@ -2310,8 +2319,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="B1:M74" totalsRowShown="0">
-  <autoFilter ref="B1:M74" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}" name="Table3" displayName="Table3" ref="B1:M31" totalsRowShown="0">
+  <autoFilter ref="B1:M31" xr:uid="{D2B2694A-36A9-4030-BECA-4BEE30B549C7}"/>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{76D7ABEC-2288-4626-9B6A-9D01F60F39E0}" name="SampleEventID" dataDxfId="41">
       <calculatedColumnFormula array="1">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[SectionName]=Instructions!D9)*(Table1[StationNumber]=Instructions!E9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</calculatedColumnFormula>
@@ -2343,10 +2352,10 @@
     <tableColumn id="5" xr3:uid="{E79944DB-7156-4A5E-8D23-A8870F2E1C94}" name="ProofedBy" dataDxfId="36">
       <calculatedColumnFormula>IF(ISBLANK(Instructions!O9),"",Instructions!O9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{31CAB6D2-8900-4335-A113-FA44B7FC3BC8}" name="Comments" dataDxfId="0">
+    <tableColumn id="20" xr3:uid="{31CAB6D2-8900-4335-A113-FA44B7FC3BC8}" name="Comments" dataDxfId="35">
       <calculatedColumnFormula>IF(ISBLANK(Instructions!P9),"",Instructions!P9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{B5ED7F1C-175A-40BD-A0D9-4AE0C22437C1}" name="AdminNotes" dataDxfId="35">
+    <tableColumn id="4" xr3:uid="{B5ED7F1C-175A-40BD-A0D9-4AE0C22437C1}" name="AdminNotes" dataDxfId="34">
       <calculatedColumnFormula>Instructions!Q9</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2355,44 +2364,44 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}" name="Table1" displayName="Table1" ref="A1:AF175" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}" name="Table1" displayName="Table1" ref="A1:AF175" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:AF175" xr:uid="{493C3DDF-B5B4-4E3C-8AD3-ADABB450E83E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P175">
     <sortCondition ref="A1:A175"/>
   </sortState>
   <tableColumns count="32">
-    <tableColumn id="16" xr3:uid="{61A67C99-3DC3-4EF1-8E9D-4DB22F375E4D}" name="FixedLocationID" dataDxfId="32"/>
-    <tableColumn id="17" xr3:uid="{23398500-7C71-4E68-AC5B-4128DED00607}" name="Estuary" dataDxfId="31"/>
-    <tableColumn id="18" xr3:uid="{22623896-B4D3-46E5-B16B-6F807267A906}" name="SectionName" dataDxfId="30"/>
-    <tableColumn id="1" xr3:uid="{CF8B1BF3-B6B7-4B01-989E-79E6F4B55D09}" name="StationName" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{266FCB90-B3B0-4EB7-8485-44F0794A400C}" name="StationNumber" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{AFB23EC9-14D9-4D70-89C7-BB7CEA80FD07}" name="ParcelName" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{B57A7EB2-6C51-42A1-ACB7-A7205AAB3F91}" name="ParcelArea" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{2C7AFD35-8437-4914-A8E0-A8484E310451}" name="CultchDensity" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{EAFB1F6A-47D9-4B23-827B-C8E89711F378}" name="LatitudeDec" dataDxfId="24"/>
-    <tableColumn id="9" xr3:uid="{8AC47069-6266-4BAC-896C-47A25D67B697}" name="LongitudeDec" dataDxfId="23"/>
-    <tableColumn id="10" xr3:uid="{0C1EBA66-B6C1-4FA5-A28E-C123C64BC674}" name="Recruitment" dataDxfId="22"/>
-    <tableColumn id="11" xr3:uid="{B41AA53E-13E1-49B5-8F9A-50A56B306108}" name="Survey" dataDxfId="21"/>
-    <tableColumn id="12" xr3:uid="{F455ED64-561D-4D37-AACD-F38D2471A77F}" name="Sediment" dataDxfId="20"/>
-    <tableColumn id="13" xr3:uid="{93D4A8C0-0BE8-4884-ADCC-D3A2E6DCF583}" name="Collections" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{3CDA8514-D4DC-4C2A-87C3-5B5727538DA8}" name="ShellBudget" dataDxfId="18"/>
-    <tableColumn id="15" xr3:uid="{D131D469-369A-432F-95FC-15FDC9DED726}" name="Dataloggers" dataDxfId="17"/>
-    <tableColumn id="20" xr3:uid="{F2AE2DD3-34CB-4D7A-B089-C58ABF9918BB}" name="Cage" dataDxfId="16"/>
-    <tableColumn id="21" xr3:uid="{0F2A07B3-E963-449A-9E92-F76C81AAF001}" name="Wave" dataDxfId="15"/>
-    <tableColumn id="22" xr3:uid="{ED629A94-88E6-4E28-A5DA-75F05065A7B9}" name="StartDate" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{48E28D9B-F5A1-48F3-A966-8BEC47D6BFC6}" name="EndDate" dataDxfId="13"/>
-    <tableColumn id="24" xr3:uid="{F0D30C63-87A0-4A31-95B8-CE0FB18EDBB8}" name="DataStatus" dataDxfId="12"/>
-    <tableColumn id="25" xr3:uid="{FDC9CE4F-7A5F-4139-B872-83CBF3DAB490}" name="DateEntered" dataDxfId="11"/>
-    <tableColumn id="26" xr3:uid="{34BC4C5F-8203-4441-B35A-4579EE7DBFD1}" name="EnteredBy" dataDxfId="10"/>
-    <tableColumn id="27" xr3:uid="{414C6AD9-7B8B-477A-A65B-F0BED14C708D}" name="DateProofed" dataDxfId="9"/>
-    <tableColumn id="28" xr3:uid="{B398EA49-5CF4-4D1C-A46D-526A3764E135}" name="ProofedBy" dataDxfId="8"/>
-    <tableColumn id="29" xr3:uid="{214A2D99-CBA5-4226-B426-CCFB3B603394}" name="DateCompleted" dataDxfId="7"/>
-    <tableColumn id="30" xr3:uid="{4AC0CCE6-4D50-46C9-AA6E-A737974E7FA0}" name="CompletedBy" dataDxfId="6"/>
-    <tableColumn id="31" xr3:uid="{F23DB5E6-D6D8-47E6-AD8C-781C08A98666}" name="Comments" dataDxfId="5"/>
-    <tableColumn id="32" xr3:uid="{78696E7B-45A6-41B1-B353-D0BC9F342E5D}" name="AdminNotes" dataDxfId="4"/>
-    <tableColumn id="33" xr3:uid="{1C34CCB0-6EDE-4B04-9CE8-4BB0B1365ADE}" name="StationNameNumber" dataDxfId="3"/>
-    <tableColumn id="34" xr3:uid="{C00DF76D-21B1-40FF-B568-AABD9E194D89}" name="EstuaryLongName" dataDxfId="2"/>
-    <tableColumn id="35" xr3:uid="{C6186EE9-EC39-43A3-8280-B81EB6E9FB93}" name="DateLastCultched" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{61A67C99-3DC3-4EF1-8E9D-4DB22F375E4D}" name="FixedLocationID" dataDxfId="31"/>
+    <tableColumn id="17" xr3:uid="{23398500-7C71-4E68-AC5B-4128DED00607}" name="Estuary" dataDxfId="30"/>
+    <tableColumn id="18" xr3:uid="{22623896-B4D3-46E5-B16B-6F807267A906}" name="SectionName" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{CF8B1BF3-B6B7-4B01-989E-79E6F4B55D09}" name="StationName" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{266FCB90-B3B0-4EB7-8485-44F0794A400C}" name="StationNumber" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{AFB23EC9-14D9-4D70-89C7-BB7CEA80FD07}" name="ParcelName" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{B57A7EB2-6C51-42A1-ACB7-A7205AAB3F91}" name="ParcelArea" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{2C7AFD35-8437-4914-A8E0-A8484E310451}" name="CultchDensity" dataDxfId="24"/>
+    <tableColumn id="8" xr3:uid="{EAFB1F6A-47D9-4B23-827B-C8E89711F378}" name="LatitudeDec" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{8AC47069-6266-4BAC-896C-47A25D67B697}" name="LongitudeDec" dataDxfId="22"/>
+    <tableColumn id="10" xr3:uid="{0C1EBA66-B6C1-4FA5-A28E-C123C64BC674}" name="Recruitment" dataDxfId="21"/>
+    <tableColumn id="11" xr3:uid="{B41AA53E-13E1-49B5-8F9A-50A56B306108}" name="Survey" dataDxfId="20"/>
+    <tableColumn id="12" xr3:uid="{F455ED64-561D-4D37-AACD-F38D2471A77F}" name="Sediment" dataDxfId="19"/>
+    <tableColumn id="13" xr3:uid="{93D4A8C0-0BE8-4884-ADCC-D3A2E6DCF583}" name="Collections" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{3CDA8514-D4DC-4C2A-87C3-5B5727538DA8}" name="ShellBudget" dataDxfId="17"/>
+    <tableColumn id="15" xr3:uid="{D131D469-369A-432F-95FC-15FDC9DED726}" name="Dataloggers" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{F2AE2DD3-34CB-4D7A-B089-C58ABF9918BB}" name="Cage" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{0F2A07B3-E963-449A-9E92-F76C81AAF001}" name="Wave" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{ED629A94-88E6-4E28-A5DA-75F05065A7B9}" name="StartDate" dataDxfId="13"/>
+    <tableColumn id="23" xr3:uid="{48E28D9B-F5A1-48F3-A966-8BEC47D6BFC6}" name="EndDate" dataDxfId="12"/>
+    <tableColumn id="24" xr3:uid="{F0D30C63-87A0-4A31-95B8-CE0FB18EDBB8}" name="DataStatus" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{FDC9CE4F-7A5F-4139-B872-83CBF3DAB490}" name="DateEntered" dataDxfId="10"/>
+    <tableColumn id="26" xr3:uid="{34BC4C5F-8203-4441-B35A-4579EE7DBFD1}" name="EnteredBy" dataDxfId="9"/>
+    <tableColumn id="27" xr3:uid="{414C6AD9-7B8B-477A-A65B-F0BED14C708D}" name="DateProofed" dataDxfId="8"/>
+    <tableColumn id="28" xr3:uid="{B398EA49-5CF4-4D1C-A46D-526A3764E135}" name="ProofedBy" dataDxfId="7"/>
+    <tableColumn id="29" xr3:uid="{214A2D99-CBA5-4226-B426-CCFB3B603394}" name="DateCompleted" dataDxfId="6"/>
+    <tableColumn id="30" xr3:uid="{4AC0CCE6-4D50-46C9-AA6E-A737974E7FA0}" name="CompletedBy" dataDxfId="5"/>
+    <tableColumn id="31" xr3:uid="{F23DB5E6-D6D8-47E6-AD8C-781C08A98666}" name="Comments" dataDxfId="4"/>
+    <tableColumn id="32" xr3:uid="{78696E7B-45A6-41B1-B353-D0BC9F342E5D}" name="AdminNotes" dataDxfId="3"/>
+    <tableColumn id="33" xr3:uid="{1C34CCB0-6EDE-4B04-9CE8-4BB0B1365ADE}" name="StationNameNumber" dataDxfId="2"/>
+    <tableColumn id="34" xr3:uid="{C00DF76D-21B1-40FF-B568-AABD9E194D89}" name="EstuaryLongName" dataDxfId="1"/>
+    <tableColumn id="35" xr3:uid="{C6186EE9-EC39-43A3-8280-B81EB6E9FB93}" name="DateLastCultched" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2715,7 +2724,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00D894D-DF5E-46E1-A945-092FA5E16BBD}">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -2865,7 +2874,7 @@
         <v>536</v>
       </c>
       <c r="B9" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>168</v>
@@ -2886,16 +2895,16 @@
         <v>2</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>540</v>
       </c>
       <c r="L9" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>615</v>
@@ -2904,7 +2913,7 @@
         <v>45957</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2" t="s">
@@ -2916,7 +2925,7 @@
         <v>536</v>
       </c>
       <c r="B10" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>168</v>
@@ -2930,20 +2939,33 @@
       <c r="F10" s="2">
         <v>17</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>622</v>
+      </c>
       <c r="J10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L10" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="N10" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2" t="s">
         <v>534</v>
@@ -2954,7 +2976,7 @@
         <v>536</v>
       </c>
       <c r="B11" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>168</v>
@@ -2968,18 +2990,36 @@
       <c r="F11" s="2">
         <v>18</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H11" s="2">
+        <v>4</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K11" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L11" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
+      <c r="N11" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="Q11" s="2" t="s">
         <v>534</v>
       </c>
@@ -2989,7 +3029,7 @@
         <v>536</v>
       </c>
       <c r="B12" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>168</v>
@@ -3003,18 +3043,33 @@
       <c r="F12" s="2">
         <v>19</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="G12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K12" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L12" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="N12" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
         <v>534</v>
@@ -3025,7 +3080,7 @@
         <v>536</v>
       </c>
       <c r="B13" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>168</v>
@@ -3039,17 +3094,33 @@
       <c r="F13" s="2">
         <v>20</v>
       </c>
+      <c r="G13" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L13" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="N13" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
         <v>534</v>
@@ -3060,7 +3131,7 @@
         <v>536</v>
       </c>
       <c r="B14" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>168</v>
@@ -3074,17 +3145,33 @@
       <c r="F14" s="2">
         <v>21</v>
       </c>
+      <c r="G14" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L14" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="N14" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>534</v>
@@ -3095,7 +3182,7 @@
         <v>536</v>
       </c>
       <c r="B15" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>168</v>
@@ -3109,18 +3196,33 @@
       <c r="F15" s="2">
         <v>22</v>
       </c>
-      <c r="I15" s="8"/>
+      <c r="G15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K15" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L15" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M15" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
         <v>534</v>
@@ -3131,7 +3233,7 @@
         <v>536</v>
       </c>
       <c r="B16" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>168</v>
@@ -3145,17 +3247,33 @@
       <c r="F16" s="2">
         <v>23</v>
       </c>
+      <c r="G16" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="K16" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L16" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M16" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="N16" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
         <v>534</v>
@@ -3166,7 +3284,7 @@
         <v>536</v>
       </c>
       <c r="B17" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>168</v>
@@ -3180,17 +3298,33 @@
       <c r="F17" s="2">
         <v>24</v>
       </c>
+      <c r="G17" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="2">
+        <v>2</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K17" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L17" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="N17" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
         <v>534</v>
@@ -3201,7 +3335,7 @@
         <v>536</v>
       </c>
       <c r="B18" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>168</v>
@@ -3215,19 +3349,36 @@
       <c r="F18" s="2">
         <v>25</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="G18" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K18" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L18" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
+      <c r="N18" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>625</v>
+      </c>
       <c r="Q18" s="2" t="s">
         <v>534</v>
       </c>
@@ -3237,7 +3388,7 @@
         <v>536</v>
       </c>
       <c r="B19" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>168</v>
@@ -3246,22 +3397,38 @@
         <v>33</v>
       </c>
       <c r="E19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="2">
         <v>26</v>
       </c>
+      <c r="G19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="2">
+        <v>2</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K19" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L19" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="N19" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
         <v>534</v>
@@ -3272,7 +3439,7 @@
         <v>536</v>
       </c>
       <c r="B20" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>168</v>
@@ -3286,17 +3453,33 @@
       <c r="F20" s="2">
         <v>27</v>
       </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2">
+        <v>2</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K20" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L20" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="N20" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2" t="s">
         <v>534</v>
@@ -3307,7 +3490,7 @@
         <v>536</v>
       </c>
       <c r="B21" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>168</v>
@@ -3321,17 +3504,33 @@
       <c r="F21" s="2">
         <v>28</v>
       </c>
+      <c r="G21" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K21" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L21" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="N21" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
         <v>534</v>
@@ -3342,7 +3541,7 @@
         <v>536</v>
       </c>
       <c r="B22" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>168</v>
@@ -3356,17 +3555,33 @@
       <c r="F22" s="2">
         <v>29</v>
       </c>
+      <c r="G22" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="2">
+        <v>3</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K22" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L22" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="N22" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
         <v>534</v>
@@ -3377,7 +3592,7 @@
         <v>536</v>
       </c>
       <c r="B23" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>168</v>
@@ -3391,17 +3606,33 @@
       <c r="F23" s="2">
         <v>30</v>
       </c>
+      <c r="G23" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K23" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L23" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+      <c r="N23" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2" t="s">
         <v>534</v>
@@ -3412,7 +3643,7 @@
         <v>536</v>
       </c>
       <c r="B24" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>168</v>
@@ -3426,17 +3657,33 @@
       <c r="F24" s="2">
         <v>31</v>
       </c>
+      <c r="G24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K24" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L24" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+      <c r="N24" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2" t="s">
         <v>534</v>
@@ -3447,7 +3694,7 @@
         <v>536</v>
       </c>
       <c r="B25" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>168</v>
@@ -3461,17 +3708,33 @@
       <c r="F25" s="2">
         <v>32</v>
       </c>
+      <c r="G25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K25" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L25" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="N25" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
         <v>534</v>
@@ -3482,7 +3745,7 @@
         <v>536</v>
       </c>
       <c r="B26" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>168</v>
@@ -3496,17 +3759,33 @@
       <c r="F26" s="2">
         <v>33</v>
       </c>
+      <c r="G26" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K26" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L26" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="N26" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
         <v>534</v>
@@ -3517,7 +3796,7 @@
         <v>536</v>
       </c>
       <c r="B27" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>168</v>
@@ -3531,17 +3810,33 @@
       <c r="F27" s="2">
         <v>34</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H27" s="2">
+        <v>2</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K27" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L27" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="N27" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
         <v>534</v>
@@ -3552,7 +3847,7 @@
         <v>536</v>
       </c>
       <c r="B28" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>168</v>
@@ -3566,18 +3861,36 @@
       <c r="F28" s="2">
         <v>35</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>623</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K28" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L28" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
+      <c r="N28" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>624</v>
+      </c>
       <c r="Q28" s="2" t="s">
         <v>534</v>
       </c>
@@ -3587,7 +3900,7 @@
         <v>536</v>
       </c>
       <c r="B29" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>168</v>
@@ -3596,22 +3909,38 @@
         <v>33</v>
       </c>
       <c r="E29" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2">
         <v>36</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K29" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L29" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M29" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+      <c r="N29" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2" t="s">
         <v>534</v>
@@ -3622,7 +3951,7 @@
         <v>536</v>
       </c>
       <c r="B30" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>168</v>
@@ -3631,22 +3960,38 @@
         <v>33</v>
       </c>
       <c r="E30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2">
+        <v>37</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>620</v>
+      </c>
+      <c r="H30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="2">
-        <v>37</v>
+      <c r="I30" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L30" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
+      <c r="N30" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
         <v>534</v>
@@ -3657,7 +4002,7 @@
         <v>536</v>
       </c>
       <c r="B31" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>168</v>
@@ -3666,22 +4011,38 @@
         <v>33</v>
       </c>
       <c r="E31" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2">
         <v>38</v>
       </c>
+      <c r="G31" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K31" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L31" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
+      <c r="N31" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
         <v>534</v>
@@ -3692,7 +4053,7 @@
         <v>536</v>
       </c>
       <c r="B32" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>168</v>
@@ -3701,22 +4062,38 @@
         <v>33</v>
       </c>
       <c r="E32" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2">
         <v>39</v>
       </c>
+      <c r="G32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H32" s="2">
+        <v>2</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K32" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L32" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="N32" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
         <v>534</v>
@@ -3727,7 +4104,7 @@
         <v>536</v>
       </c>
       <c r="B33" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>168</v>
@@ -3741,17 +4118,33 @@
       <c r="F33" s="2">
         <v>40</v>
       </c>
+      <c r="G33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="2">
+        <v>2</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K33" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L33" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="N33" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
         <v>534</v>
@@ -3762,7 +4155,7 @@
         <v>536</v>
       </c>
       <c r="B34" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>168</v>
@@ -3776,17 +4169,33 @@
       <c r="F34" s="2">
         <v>41</v>
       </c>
+      <c r="G34" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H34" s="2">
+        <v>2</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K34" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L34" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="N34" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2" t="s">
         <v>534</v>
@@ -3797,7 +4206,7 @@
         <v>536</v>
       </c>
       <c r="B35" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>168</v>
@@ -3811,21 +4220,33 @@
       <c r="F35" s="2">
         <v>42</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
+      <c r="G35" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="2">
+        <v>2</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K35" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L35" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+      <c r="N35" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2" t="s">
         <v>534</v>
@@ -3836,7 +4257,7 @@
         <v>536</v>
       </c>
       <c r="B36" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>168</v>
@@ -3850,21 +4271,33 @@
       <c r="F36" s="2">
         <v>43</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+      <c r="G36" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K36" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L36" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="N36" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>615</v>
+      </c>
       <c r="P36" s="2"/>
       <c r="Q36" s="2" t="s">
         <v>534</v>
@@ -3875,7 +4308,7 @@
         <v>536</v>
       </c>
       <c r="B37" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>168</v>
@@ -3889,22 +4322,36 @@
       <c r="F37" s="2">
         <v>44</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
+      <c r="G37" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H37" s="2">
+        <v>4</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K37" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L37" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
+      <c r="N37" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>626</v>
+      </c>
       <c r="Q37" s="2" t="s">
         <v>534</v>
       </c>
@@ -3914,7 +4361,7 @@
         <v>536</v>
       </c>
       <c r="B38" s="3">
-        <v>45755</v>
+        <v>45903</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>168</v>
@@ -3928,1700 +4375,37 @@
       <c r="F38" s="2">
         <v>45</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="G38" s="8" t="s">
+        <v>623</v>
+      </c>
+      <c r="H38" s="2">
+        <v>4</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="K38" s="2" t="s">
-        <v>622</v>
+        <v>540</v>
       </c>
       <c r="L38" s="3">
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
+      <c r="N38" s="3">
+        <v>45957</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>626</v>
+      </c>
       <c r="Q38" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B39" s="3">
-        <v>45755</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="2">
-        <v>3</v>
-      </c>
-      <c r="F39" s="2">
-        <v>46</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L39" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B40" s="3">
-        <v>45755</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="2">
-        <v>3</v>
-      </c>
-      <c r="F40" s="2">
-        <v>47</v>
-      </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L40" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M40" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B41" s="3">
-        <v>45755</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="2">
-        <v>48</v>
-      </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L41" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B42" s="3">
-        <v>45755</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="2">
-        <v>49</v>
-      </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L42" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B43" s="3">
-        <v>45755</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="2">
-        <v>3</v>
-      </c>
-      <c r="F43" s="2">
-        <v>50</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L43" s="3">
-        <v>45771</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B44" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-      <c r="F44" s="2">
-        <v>16</v>
-      </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L44" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B45" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-      <c r="F45" s="2">
-        <v>17</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L45" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B46" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
-      <c r="F46" s="2">
-        <v>18</v>
-      </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L46" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B47" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E47" s="2">
-        <v>1</v>
-      </c>
-      <c r="F47" s="2">
-        <v>19</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L47" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B48" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-      <c r="F48" s="2">
-        <v>20</v>
-      </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L48" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B49" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-      <c r="F49" s="2">
-        <v>21</v>
-      </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L49" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B50" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E50" s="2">
-        <v>1</v>
-      </c>
-      <c r="F50" s="2">
-        <v>22</v>
-      </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L50" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B51" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E51" s="2">
-        <v>1</v>
-      </c>
-      <c r="F51" s="2">
-        <v>23</v>
-      </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L51" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B52" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2">
-        <v>24</v>
-      </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L52" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B53" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-      <c r="F53" s="2">
-        <v>25</v>
-      </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L53" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B54" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E54" s="2">
-        <v>1</v>
-      </c>
-      <c r="F54" s="2">
-        <v>26</v>
-      </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L54" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B55" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E55" s="2">
-        <v>1</v>
-      </c>
-      <c r="F55" s="2">
-        <v>27</v>
-      </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L55" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B56" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E56" s="2">
-        <v>2</v>
-      </c>
-      <c r="F56" s="2">
-        <v>28</v>
-      </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L56" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B57" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E57" s="2">
-        <v>2</v>
-      </c>
-      <c r="F57" s="2">
-        <v>29</v>
-      </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L57" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B58" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="2">
-        <v>2</v>
-      </c>
-      <c r="F58" s="2">
-        <v>30</v>
-      </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L58" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M58" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B59" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E59" s="2">
-        <v>2</v>
-      </c>
-      <c r="F59" s="2">
-        <v>31</v>
-      </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L59" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M59" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B60" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="2">
-        <v>2</v>
-      </c>
-      <c r="F60" s="2">
-        <v>32</v>
-      </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L60" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M60" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B61" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="2">
-        <v>2</v>
-      </c>
-      <c r="F61" s="2">
-        <v>33</v>
-      </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L61" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M61" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B62" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="2">
-        <v>2</v>
-      </c>
-      <c r="F62" s="2">
-        <v>34</v>
-      </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L62" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M62" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B63" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="2">
-        <v>2</v>
-      </c>
-      <c r="F63" s="2">
-        <v>35</v>
-      </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L63" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M63" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B64" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="2">
-        <v>2</v>
-      </c>
-      <c r="F64" s="2">
-        <v>36</v>
-      </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L64" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B65" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="2">
-        <v>2</v>
-      </c>
-      <c r="F65" s="2">
-        <v>37</v>
-      </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L65" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M65" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B66" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="2">
-        <v>2</v>
-      </c>
-      <c r="F66" s="2">
-        <v>38</v>
-      </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L66" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B67" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="2">
-        <v>2</v>
-      </c>
-      <c r="F67" s="2">
-        <v>39</v>
-      </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L67" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B68" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E68" s="2">
-        <v>2</v>
-      </c>
-      <c r="F68" s="2">
-        <v>40</v>
-      </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L68" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M68" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B69" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E69" s="2">
-        <v>3</v>
-      </c>
-      <c r="F69" s="2">
-        <v>41</v>
-      </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L69" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M69" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B70" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E70" s="2">
-        <v>3</v>
-      </c>
-      <c r="F70" s="2">
-        <v>42</v>
-      </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L70" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M70" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B71" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="2">
-        <v>3</v>
-      </c>
-      <c r="F71" s="2">
-        <v>43</v>
-      </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L71" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M71" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B72" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="2">
-        <v>3</v>
-      </c>
-      <c r="F72" s="2">
-        <v>44</v>
-      </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L72" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M72" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B73" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="2">
-        <v>3</v>
-      </c>
-      <c r="F73" s="2">
-        <v>45</v>
-      </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L73" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B74" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3</v>
-      </c>
-      <c r="F74" s="2">
-        <v>46</v>
-      </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L74" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B75" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="2">
-        <v>3</v>
-      </c>
-      <c r="F75" s="2">
-        <v>47</v>
-      </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L75" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B76" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E76" s="2">
-        <v>3</v>
-      </c>
-      <c r="F76" s="2">
-        <v>48</v>
-      </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L76" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B77" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E77" s="2">
-        <v>3</v>
-      </c>
-      <c r="F77" s="2">
-        <v>49</v>
-      </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L77" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B78" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E78" s="2">
-        <v>3</v>
-      </c>
-      <c r="F78" s="2">
-        <v>50</v>
-      </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L78" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B79" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="2">
-        <v>3</v>
-      </c>
-      <c r="F79" s="2">
-        <v>51</v>
-      </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L79" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M79" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B80" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E80" s="2">
-        <v>3</v>
-      </c>
-      <c r="F80" s="2">
-        <v>52</v>
-      </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L80" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M80" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="B81" s="3">
-        <v>45783</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E81" s="2">
-        <v>3</v>
-      </c>
-      <c r="F81" s="2">
-        <v>53</v>
-      </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="2" t="s">
-        <v>622</v>
-      </c>
-      <c r="L81" s="3">
-        <v>45804</v>
-      </c>
-      <c r="M81" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2" t="s">
         <v>534</v>
       </c>
     </row>
@@ -5636,16 +4420,16 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I81" xr:uid="{15CD00AE-C8F0-4453-9A04-554BCE1FCA01}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I38" xr:uid="{15CD00AE-C8F0-4453-9A04-554BCE1FCA01}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J81" xr:uid="{45922EF0-B728-44BC-8064-9C74DFC58620}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J9:J38" xr:uid="{45922EF0-B728-44BC-8064-9C74DFC58620}">
       <formula1>"Y, N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G81" xr:uid="{BF2CF6E3-9F5F-4776-9C40-B34041F36289}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G38" xr:uid="{BF2CF6E3-9F5F-4776-9C40-B34041F36289}">
       <formula1>"M, F, Z, M/F"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H81" xr:uid="{30E19BBB-6F0E-4E7E-A20D-0DB21382E9F4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H38" xr:uid="{30E19BBB-6F0E-4E7E-A20D-0DB21382E9F4}">
       <formula1>"1, 2, 3, 4, Z"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5658,11 +4442,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E67E62C5-4E8D-49D3-846A-7389286C002D}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5724,11 +4506,11 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>_xlfn.CONCAT(Instructions!C9,Instructions!D9,"D",TEXT(Instructions!B9,"YY"),TEXT(Instructions!B9,"MM"),"-",TEXT(Instructions!F9,"00"))</f>
-        <v>LXND2504-16</v>
+        <v>LXND2509-16</v>
       </c>
       <c r="B2" t="str" cm="1">
         <f t="array" ref="B2">_xlfn.CONCAT(Instructions!C9,Instructions!A9,"_",TEXT(Instructions!B9,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C9)*(Table1[SectionName]=Instructions!D9)*(Table1[StationNumber]=Instructions!E9)*(Instructions!B9&gt;Table1[StartDate])*(Instructions!B9&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
+        <v>LXCOLL_20250903_1_0242_1</v>
       </c>
       <c r="C2" t="str">
         <f>Instructions!G9</f>
@@ -5740,11 +4522,11 @@
       </c>
       <c r="E2" t="str">
         <f>Instructions!I9</f>
-        <v>Yes</v>
+        <v>No</v>
       </c>
       <c r="F2" t="str">
         <f>Instructions!J9</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="G2" t="str">
         <f>Instructions!K9</f>
@@ -5752,16 +4534,19 @@
       </c>
       <c r="H2" s="1">
         <f>IF(ISBLANK(Instructions!L9),"",Instructions!L9)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I2" t="str">
         <f>IF(ISBLANK(Instructions!M9),"",Instructions!M9)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J2" s="1"/>
+      <c r="J2" s="1">
+        <f>IF(ISBLANK(Instructions!N9),"",Instructions!N9)</f>
+        <v>45957</v>
+      </c>
       <c r="K2" t="str">
         <f>IF(ISBLANK(Instructions!O9),"",Instructions!O9)</f>
-        <v>Erica Williams</v>
+        <v>Lily Harmon</v>
       </c>
       <c r="L2" t="str">
         <f>IF(ISBLANK(Instructions!P9),"",Instructions!P9)</f>
@@ -5775,47 +4560,47 @@
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>_xlfn.CONCAT(Instructions!C10,Instructions!D10,"D",TEXT(Instructions!B10,"YY"),TEXT(Instructions!B10,"MM"),"-",TEXT(Instructions!F10,"00"))</f>
-        <v>LXND2504-17</v>
+        <v>LXND2509-17</v>
       </c>
       <c r="B3" t="str" cm="1">
         <f t="array" ref="B3">_xlfn.CONCAT(Instructions!C10,Instructions!A10,"_",TEXT(Instructions!B10,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C10)*(Table1[SectionName]=Instructions!D10)*(Table1[StationNumber]=Instructions!E10)*(Instructions!B10&gt;Table1[StartDate])*(Instructions!B10&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C3">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C3" t="str">
         <f>Instructions!G10</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D3">
         <f>Instructions!H10</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
         <f>Instructions!I10</f>
-        <v>0</v>
+        <v>No</v>
       </c>
       <c r="F3" t="str">
         <f>Instructions!J10</f>
-        <v>Y</v>
+        <v>N</v>
       </c>
       <c r="G3" t="str">
         <f>Instructions!K10</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H3" s="1">
         <f>IF(ISBLANK(Instructions!L10),"",Instructions!L10)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I3" t="str">
         <f>IF(ISBLANK(Instructions!M10),"",Instructions!M10)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="J3" s="1">
         <f>IF(ISBLANK(Instructions!N10),"",Instructions!N10)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K3" t="str">
         <f>IF(ISBLANK(Instructions!O10),"",Instructions!O10)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L3" t="str">
         <f>IF(ISBLANK(Instructions!P10),"",Instructions!P10)</f>
@@ -5829,51 +4614,51 @@
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>_xlfn.CONCAT(Instructions!C11,Instructions!D11,"D",TEXT(Instructions!B11,"YY"),TEXT(Instructions!B11,"MM"),"-",TEXT(Instructions!F11,"00"))</f>
-        <v>LXND2504-18</v>
+        <v>LXND2509-18</v>
       </c>
       <c r="B4" t="str" cm="1">
         <f t="array" ref="B4">_xlfn.CONCAT(Instructions!C11,Instructions!A11,"_",TEXT(Instructions!B11,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C11)*(Table1[SectionName]=Instructions!D11)*(Table1[StationNumber]=Instructions!E11)*(Instructions!B11&gt;Table1[StartDate])*(Instructions!B11&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C4">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C4" t="str">
         <f>Instructions!G11</f>
-        <v>0</v>
+        <v>Z</v>
       </c>
       <c r="D4">
         <f>Instructions!H11</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="str">
         <f>Instructions!I11</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
+        <v>No</v>
+      </c>
+      <c r="F4" t="str">
         <f>Instructions!J11</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G4" t="str">
         <f>Instructions!K11</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H4" s="1">
         <f>IF(ISBLANK(Instructions!L11),"",Instructions!L11)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I4" t="str">
         <f>IF(ISBLANK(Instructions!M11),"",Instructions!M11)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J4" s="1" t="str">
+      <c r="J4" s="1">
         <f>IF(ISBLANK(Instructions!N11),"",Instructions!N11)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K4" t="str">
         <f>IF(ISBLANK(Instructions!O11),"",Instructions!O11)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L4" t="str">
         <f>IF(ISBLANK(Instructions!P11),"",Instructions!P11)</f>
-        <v/>
+        <v>1=mat</v>
       </c>
       <c r="M4" t="str">
         <f>Instructions!Q11</f>
@@ -5883,47 +4668,47 @@
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>_xlfn.CONCAT(Instructions!C12,Instructions!D12,"D",TEXT(Instructions!B12,"YY"),TEXT(Instructions!B12,"MM"),"-",TEXT(Instructions!F12,"00"))</f>
-        <v>LXND2504-19</v>
+        <v>LXND2509-19</v>
       </c>
       <c r="B5" t="str" cm="1">
         <f t="array" ref="B5">_xlfn.CONCAT(Instructions!C12,Instructions!A12,"_",TEXT(Instructions!B12,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C12)*(Table1[SectionName]=Instructions!D12)*(Table1[StationNumber]=Instructions!E12)*(Instructions!B12&gt;Table1[StartDate])*(Instructions!B12&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C5">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C5" t="str">
         <f>Instructions!G12</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D5">
         <f>Instructions!H12</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="str">
         <f>Instructions!I12</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
+        <v>No</v>
+      </c>
+      <c r="F5" t="str">
         <f>Instructions!J12</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G5" t="str">
         <f>Instructions!K12</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H5" s="1">
         <f>IF(ISBLANK(Instructions!L12),"",Instructions!L12)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I5" t="str">
         <f>IF(ISBLANK(Instructions!M12),"",Instructions!M12)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J5" s="1" t="str">
+      <c r="J5" s="1">
         <f>IF(ISBLANK(Instructions!N12),"",Instructions!N12)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K5" t="str">
         <f>IF(ISBLANK(Instructions!O12),"",Instructions!O12)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L5" t="str">
         <f>IF(ISBLANK(Instructions!P12),"",Instructions!P12)</f>
@@ -5937,47 +4722,47 @@
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>_xlfn.CONCAT(Instructions!C13,Instructions!D13,"D",TEXT(Instructions!B13,"YY"),TEXT(Instructions!B13,"MM"),"-",TEXT(Instructions!F13,"00"))</f>
-        <v>LXND2504-20</v>
+        <v>LXND2509-20</v>
       </c>
       <c r="B6" t="str" cm="1">
         <f t="array" ref="B6">_xlfn.CONCAT(Instructions!C13,Instructions!A13,"_",TEXT(Instructions!B13,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C13)*(Table1[SectionName]=Instructions!D13)*(Table1[StationNumber]=Instructions!E13)*(Instructions!B13&gt;Table1[StartDate])*(Instructions!B13&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C6">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C6" t="str">
         <f>Instructions!G13</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D6">
         <f>Instructions!H13</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="str">
         <f>Instructions!I13</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
+        <v>No</v>
+      </c>
+      <c r="F6" t="str">
         <f>Instructions!J13</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G6" t="str">
         <f>Instructions!K13</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H6" s="1">
         <f>IF(ISBLANK(Instructions!L13),"",Instructions!L13)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I6" t="str">
         <f>IF(ISBLANK(Instructions!M13),"",Instructions!M13)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J6" s="1" t="str">
+      <c r="J6" s="1">
         <f>IF(ISBLANK(Instructions!N13),"",Instructions!N13)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K6" t="str">
         <f>IF(ISBLANK(Instructions!O13),"",Instructions!O13)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L6" t="str">
         <f>IF(ISBLANK(Instructions!P13),"",Instructions!P13)</f>
@@ -5991,47 +4776,47 @@
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>_xlfn.CONCAT(Instructions!C14,Instructions!D14,"D",TEXT(Instructions!B14,"YY"),TEXT(Instructions!B14,"MM"),"-",TEXT(Instructions!F14,"00"))</f>
-        <v>LXND2504-21</v>
+        <v>LXND2509-21</v>
       </c>
       <c r="B7" t="str" cm="1">
         <f t="array" ref="B7">_xlfn.CONCAT(Instructions!C14,Instructions!A14,"_",TEXT(Instructions!B14,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C14)*(Table1[SectionName]=Instructions!D14)*(Table1[StationNumber]=Instructions!E14)*(Instructions!B14&gt;Table1[StartDate])*(Instructions!B14&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C7">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C7" t="str">
         <f>Instructions!G14</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D7">
         <f>Instructions!H14</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="str">
         <f>Instructions!I14</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
+        <v>No</v>
+      </c>
+      <c r="F7" t="str">
         <f>Instructions!J14</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G7" t="str">
         <f>Instructions!K14</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H7" s="1">
         <f>IF(ISBLANK(Instructions!L14),"",Instructions!L14)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I7" t="str">
         <f>IF(ISBLANK(Instructions!M14),"",Instructions!M14)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J7" s="1" t="str">
+      <c r="J7" s="1">
         <f>IF(ISBLANK(Instructions!N14),"",Instructions!N14)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK(Instructions!O14),"",Instructions!O14)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L7" t="str">
         <f>IF(ISBLANK(Instructions!P14),"",Instructions!P14)</f>
@@ -6045,47 +4830,47 @@
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>_xlfn.CONCAT(Instructions!C15,Instructions!D15,"D",TEXT(Instructions!B15,"YY"),TEXT(Instructions!B15,"MM"),"-",TEXT(Instructions!F15,"00"))</f>
-        <v>LXND2504-22</v>
+        <v>LXND2509-22</v>
       </c>
       <c r="B8" t="str" cm="1">
         <f t="array" ref="B8">_xlfn.CONCAT(Instructions!C15,Instructions!A15,"_",TEXT(Instructions!B15,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C15)*(Table1[SectionName]=Instructions!D15)*(Table1[StationNumber]=Instructions!E15)*(Instructions!B15&gt;Table1[StartDate])*(Instructions!B15&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C8">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C8" t="str">
         <f>Instructions!G15</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D8">
         <f>Instructions!H15</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="str">
         <f>Instructions!I15</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
+        <v>No</v>
+      </c>
+      <c r="F8" t="str">
         <f>Instructions!J15</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G8" t="str">
         <f>Instructions!K15</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H8" s="1">
         <f>IF(ISBLANK(Instructions!L15),"",Instructions!L15)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I8" t="str">
         <f>IF(ISBLANK(Instructions!M15),"",Instructions!M15)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J8" s="1" t="str">
+      <c r="J8" s="1">
         <f>IF(ISBLANK(Instructions!N15),"",Instructions!N15)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K8" t="str">
         <f>IF(ISBLANK(Instructions!O15),"",Instructions!O15)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L8" t="str">
         <f>IF(ISBLANK(Instructions!P15),"",Instructions!P15)</f>
@@ -6099,47 +4884,47 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>_xlfn.CONCAT(Instructions!C16,Instructions!D16,"D",TEXT(Instructions!B16,"YY"),TEXT(Instructions!B16,"MM"),"-",TEXT(Instructions!F16,"00"))</f>
-        <v>LXND2504-23</v>
+        <v>LXND2509-23</v>
       </c>
       <c r="B9" t="str" cm="1">
         <f t="array" ref="B9">_xlfn.CONCAT(Instructions!C16,Instructions!A16,"_",TEXT(Instructions!B16,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C16)*(Table1[SectionName]=Instructions!D16)*(Table1[StationNumber]=Instructions!E16)*(Instructions!B16&gt;Table1[StartDate])*(Instructions!B16&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C9">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C9" t="str">
         <f>Instructions!G16</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
+        <v>Z</v>
+      </c>
+      <c r="D9" t="str">
         <f>Instructions!H16</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
+        <v>Z</v>
+      </c>
+      <c r="E9" t="str">
         <f>Instructions!I16</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
+        <v>No</v>
+      </c>
+      <c r="F9" t="str">
         <f>Instructions!J16</f>
-        <v>0</v>
+        <v>Y</v>
       </c>
       <c r="G9" t="str">
         <f>Instructions!K16</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H9" s="1">
         <f>IF(ISBLANK(Instructions!L16),"",Instructions!L16)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I9" t="str">
         <f>IF(ISBLANK(Instructions!M16),"",Instructions!M16)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J9" s="1" t="str">
+      <c r="J9" s="1">
         <f>IF(ISBLANK(Instructions!N16),"",Instructions!N16)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K9" t="str">
         <f>IF(ISBLANK(Instructions!O16),"",Instructions!O16)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L9" t="str">
         <f>IF(ISBLANK(Instructions!P16),"",Instructions!P16)</f>
@@ -6153,47 +4938,47 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>_xlfn.CONCAT(Instructions!C17,Instructions!D17,"D",TEXT(Instructions!B17,"YY"),TEXT(Instructions!B17,"MM"),"-",TEXT(Instructions!F17,"00"))</f>
-        <v>LXND2504-24</v>
+        <v>LXND2509-24</v>
       </c>
       <c r="B10" t="str" cm="1">
         <f t="array" ref="B10">_xlfn.CONCAT(Instructions!C17,Instructions!A17,"_",TEXT(Instructions!B17,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C17)*(Table1[SectionName]=Instructions!D17)*(Table1[StationNumber]=Instructions!E17)*(Instructions!B17&gt;Table1[StartDate])*(Instructions!B17&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C10">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C10" t="str">
         <f>Instructions!G17</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D10">
         <f>Instructions!H17</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="str">
         <f>Instructions!I17</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
+        <v>No</v>
+      </c>
+      <c r="F10" t="str">
         <f>Instructions!J17</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G10" t="str">
         <f>Instructions!K17</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H10" s="1">
         <f>IF(ISBLANK(Instructions!L17),"",Instructions!L17)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I10" t="str">
         <f>IF(ISBLANK(Instructions!M17),"",Instructions!M17)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J10" s="1" t="str">
+      <c r="J10" s="1">
         <f>IF(ISBLANK(Instructions!N17),"",Instructions!N17)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K10" t="str">
         <f>IF(ISBLANK(Instructions!O17),"",Instructions!O17)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L10" t="str">
         <f>IF(ISBLANK(Instructions!P17),"",Instructions!P17)</f>
@@ -6207,51 +4992,51 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>_xlfn.CONCAT(Instructions!C18,Instructions!D18,"D",TEXT(Instructions!B18,"YY"),TEXT(Instructions!B18,"MM"),"-",TEXT(Instructions!F18,"00"))</f>
-        <v>LXND2504-25</v>
+        <v>LXND2509-25</v>
       </c>
       <c r="B11" t="str" cm="1">
         <f t="array" ref="B11">_xlfn.CONCAT(Instructions!C18,Instructions!A18,"_",TEXT(Instructions!B18,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C18)*(Table1[SectionName]=Instructions!D18)*(Table1[StationNumber]=Instructions!E18)*(Instructions!B18&gt;Table1[StartDate])*(Instructions!B18&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C11">
+        <v>LXCOLL_20250903_1_0242_1</v>
+      </c>
+      <c r="C11" t="str">
         <f>Instructions!G18</f>
-        <v>0</v>
-      </c>
-      <c r="D11">
+        <v>Z</v>
+      </c>
+      <c r="D11" t="str">
         <f>Instructions!H18</f>
-        <v>0</v>
-      </c>
-      <c r="E11">
+        <v>Z</v>
+      </c>
+      <c r="E11" t="str">
         <f>Instructions!I18</f>
-        <v>0</v>
-      </c>
-      <c r="F11">
+        <v>No</v>
+      </c>
+      <c r="F11" t="str">
         <f>Instructions!J18</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G11" t="str">
         <f>Instructions!K18</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H11" s="1">
         <f>IF(ISBLANK(Instructions!L18),"",Instructions!L18)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I11" t="str">
         <f>IF(ISBLANK(Instructions!M18),"",Instructions!M18)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J11" s="1" t="str">
+      <c r="J11" s="1">
         <f>IF(ISBLANK(Instructions!N18),"",Instructions!N18)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K11" t="str">
         <f>IF(ISBLANK(Instructions!O18),"",Instructions!O18)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L11" t="str">
         <f>IF(ISBLANK(Instructions!P18),"",Instructions!P18)</f>
-        <v/>
+        <v xml:space="preserve">Missing slide </v>
       </c>
       <c r="M11" t="str">
         <f>Instructions!Q18</f>
@@ -6261,47 +5046,47 @@
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>_xlfn.CONCAT(Instructions!C19,Instructions!D19,"D",TEXT(Instructions!B19,"YY"),TEXT(Instructions!B19,"MM"),"-",TEXT(Instructions!F19,"00"))</f>
-        <v>LXND2504-26</v>
+        <v>LXND2509-26</v>
       </c>
       <c r="B12" t="str" cm="1">
         <f t="array" ref="B12">_xlfn.CONCAT(Instructions!C19,Instructions!A19,"_",TEXT(Instructions!B19,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C19)*(Table1[SectionName]=Instructions!D19)*(Table1[StationNumber]=Instructions!E19)*(Instructions!B19&gt;Table1[StartDate])*(Instructions!B19&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0242_1</v>
-      </c>
-      <c r="C12">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C12" t="str">
         <f>Instructions!G19</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D12">
         <f>Instructions!H19</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="str">
         <f>Instructions!I19</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
+        <v>No</v>
+      </c>
+      <c r="F12" t="str">
         <f>Instructions!J19</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G12" t="str">
         <f>Instructions!K19</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H12" s="1">
         <f>IF(ISBLANK(Instructions!L19),"",Instructions!L19)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I12" t="str">
         <f>IF(ISBLANK(Instructions!M19),"",Instructions!M19)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J12" s="1" t="str">
+      <c r="J12" s="1">
         <f>IF(ISBLANK(Instructions!N19),"",Instructions!N19)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K12" t="str">
         <f>IF(ISBLANK(Instructions!O19),"",Instructions!O19)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L12" t="str">
         <f>IF(ISBLANK(Instructions!P19),"",Instructions!P19)</f>
@@ -6315,47 +5100,47 @@
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>_xlfn.CONCAT(Instructions!C20,Instructions!D20,"D",TEXT(Instructions!B20,"YY"),TEXT(Instructions!B20,"MM"),"-",TEXT(Instructions!F20,"00"))</f>
-        <v>LXND2504-27</v>
+        <v>LXND2509-27</v>
       </c>
       <c r="B13" t="str" cm="1">
         <f t="array" ref="B13">_xlfn.CONCAT(Instructions!C20,Instructions!A20,"_",TEXT(Instructions!B20,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C20)*(Table1[SectionName]=Instructions!D20)*(Table1[StationNumber]=Instructions!E20)*(Instructions!B20&gt;Table1[StartDate])*(Instructions!B20&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C13">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C13" t="str">
         <f>Instructions!G20</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D13">
         <f>Instructions!H20</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="str">
         <f>Instructions!I20</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
+        <v>No</v>
+      </c>
+      <c r="F13" t="str">
         <f>Instructions!J20</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G13" t="str">
         <f>Instructions!K20</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H13" s="1">
         <f>IF(ISBLANK(Instructions!L20),"",Instructions!L20)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I13" t="str">
         <f>IF(ISBLANK(Instructions!M20),"",Instructions!M20)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J13" s="1" t="str">
+      <c r="J13" s="1">
         <f>IF(ISBLANK(Instructions!N20),"",Instructions!N20)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K13" t="str">
         <f>IF(ISBLANK(Instructions!O20),"",Instructions!O20)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L13" t="str">
         <f>IF(ISBLANK(Instructions!P20),"",Instructions!P20)</f>
@@ -6369,47 +5154,47 @@
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>_xlfn.CONCAT(Instructions!C21,Instructions!D21,"D",TEXT(Instructions!B21,"YY"),TEXT(Instructions!B21,"MM"),"-",TEXT(Instructions!F21,"00"))</f>
-        <v>LXND2504-28</v>
+        <v>LXND2509-28</v>
       </c>
       <c r="B14" t="str" cm="1">
         <f t="array" ref="B14">_xlfn.CONCAT(Instructions!C21,Instructions!A21,"_",TEXT(Instructions!B21,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C21)*(Table1[SectionName]=Instructions!D21)*(Table1[StationNumber]=Instructions!E21)*(Instructions!B21&gt;Table1[StartDate])*(Instructions!B21&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C14">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C14" t="str">
         <f>Instructions!G21</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D14">
         <f>Instructions!H21</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="str">
         <f>Instructions!I21</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
+        <v>No</v>
+      </c>
+      <c r="F14" t="str">
         <f>Instructions!J21</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G14" t="str">
         <f>Instructions!K21</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H14" s="1">
         <f>IF(ISBLANK(Instructions!L21),"",Instructions!L21)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I14" t="str">
         <f>IF(ISBLANK(Instructions!M21),"",Instructions!M21)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J14" s="1" t="str">
+      <c r="J14" s="1">
         <f>IF(ISBLANK(Instructions!N21),"",Instructions!N21)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K14" t="str">
         <f>IF(ISBLANK(Instructions!O21),"",Instructions!O21)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L14" t="str">
         <f>IF(ISBLANK(Instructions!P21),"",Instructions!P21)</f>
@@ -6423,47 +5208,47 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>_xlfn.CONCAT(Instructions!C22,Instructions!D22,"D",TEXT(Instructions!B22,"YY"),TEXT(Instructions!B22,"MM"),"-",TEXT(Instructions!F22,"00"))</f>
-        <v>LXND2504-29</v>
+        <v>LXND2509-29</v>
       </c>
       <c r="B15" t="str" cm="1">
         <f t="array" ref="B15">_xlfn.CONCAT(Instructions!C22,Instructions!A22,"_",TEXT(Instructions!B22,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C22)*(Table1[SectionName]=Instructions!D22)*(Table1[StationNumber]=Instructions!E22)*(Instructions!B22&gt;Table1[StartDate])*(Instructions!B22&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C15">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C15" t="str">
         <f>Instructions!G22</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D15">
         <f>Instructions!H22</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="str">
         <f>Instructions!I22</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
+        <v>No</v>
+      </c>
+      <c r="F15" t="str">
         <f>Instructions!J22</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G15" t="str">
         <f>Instructions!K22</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H15" s="1">
         <f>IF(ISBLANK(Instructions!L22),"",Instructions!L22)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I15" t="str">
         <f>IF(ISBLANK(Instructions!M22),"",Instructions!M22)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J15" s="1" t="str">
+      <c r="J15" s="1">
         <f>IF(ISBLANK(Instructions!N22),"",Instructions!N22)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K15" t="str">
         <f>IF(ISBLANK(Instructions!O22),"",Instructions!O22)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L15" t="str">
         <f>IF(ISBLANK(Instructions!P22),"",Instructions!P22)</f>
@@ -6477,47 +5262,47 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>_xlfn.CONCAT(Instructions!C23,Instructions!D23,"D",TEXT(Instructions!B23,"YY"),TEXT(Instructions!B23,"MM"),"-",TEXT(Instructions!F23,"00"))</f>
-        <v>LXND2504-30</v>
+        <v>LXND2509-30</v>
       </c>
       <c r="B16" t="str" cm="1">
         <f t="array" ref="B16">_xlfn.CONCAT(Instructions!C23,Instructions!A23,"_",TEXT(Instructions!B23,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C23)*(Table1[SectionName]=Instructions!D23)*(Table1[StationNumber]=Instructions!E23)*(Instructions!B23&gt;Table1[StartDate])*(Instructions!B23&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C16">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C16" t="str">
         <f>Instructions!G23</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D16">
         <f>Instructions!H23</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="str">
         <f>Instructions!I23</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
+        <v>No</v>
+      </c>
+      <c r="F16" t="str">
         <f>Instructions!J23</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G16" t="str">
         <f>Instructions!K23</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H16" s="1">
         <f>IF(ISBLANK(Instructions!L23),"",Instructions!L23)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I16" t="str">
         <f>IF(ISBLANK(Instructions!M23),"",Instructions!M23)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J16" s="1" t="str">
+      <c r="J16" s="1">
         <f>IF(ISBLANK(Instructions!N23),"",Instructions!N23)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K16" t="str">
         <f>IF(ISBLANK(Instructions!O23),"",Instructions!O23)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L16" t="str">
         <f>IF(ISBLANK(Instructions!P23),"",Instructions!P23)</f>
@@ -6531,47 +5316,47 @@
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>_xlfn.CONCAT(Instructions!C24,Instructions!D24,"D",TEXT(Instructions!B24,"YY"),TEXT(Instructions!B24,"MM"),"-",TEXT(Instructions!F24,"00"))</f>
-        <v>LXND2504-31</v>
+        <v>LXND2509-31</v>
       </c>
       <c r="B17" t="str" cm="1">
         <f t="array" ref="B17">_xlfn.CONCAT(Instructions!C24,Instructions!A24,"_",TEXT(Instructions!B24,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C24)*(Table1[SectionName]=Instructions!D24)*(Table1[StationNumber]=Instructions!E24)*(Instructions!B24&gt;Table1[StartDate])*(Instructions!B24&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C17">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C17" t="str">
         <f>Instructions!G24</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D17">
         <f>Instructions!H24</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="str">
         <f>Instructions!I24</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
+        <v>No</v>
+      </c>
+      <c r="F17" t="str">
         <f>Instructions!J24</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G17" t="str">
         <f>Instructions!K24</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H17" s="1">
         <f>IF(ISBLANK(Instructions!L24),"",Instructions!L24)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I17" t="str">
         <f>IF(ISBLANK(Instructions!M24),"",Instructions!M24)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J17" s="1" t="str">
+      <c r="J17" s="1">
         <f>IF(ISBLANK(Instructions!N24),"",Instructions!N24)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K17" t="str">
         <f>IF(ISBLANK(Instructions!O24),"",Instructions!O24)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L17" t="str">
         <f>IF(ISBLANK(Instructions!P24),"",Instructions!P24)</f>
@@ -6585,47 +5370,47 @@
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>_xlfn.CONCAT(Instructions!C25,Instructions!D25,"D",TEXT(Instructions!B25,"YY"),TEXT(Instructions!B25,"MM"),"-",TEXT(Instructions!F25,"00"))</f>
-        <v>LXND2504-32</v>
+        <v>LXND2509-32</v>
       </c>
       <c r="B18" t="str" cm="1">
         <f t="array" ref="B18">_xlfn.CONCAT(Instructions!C25,Instructions!A25,"_",TEXT(Instructions!B25,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C25)*(Table1[SectionName]=Instructions!D25)*(Table1[StationNumber]=Instructions!E25)*(Instructions!B25&gt;Table1[StartDate])*(Instructions!B25&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C18">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C18" t="str">
         <f>Instructions!G25</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D18">
         <f>Instructions!H25</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="str">
         <f>Instructions!I25</f>
-        <v>0</v>
-      </c>
-      <c r="F18">
+        <v>No</v>
+      </c>
+      <c r="F18" t="str">
         <f>Instructions!J25</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G18" t="str">
         <f>Instructions!K25</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H18" s="1">
         <f>IF(ISBLANK(Instructions!L25),"",Instructions!L25)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I18" t="str">
         <f>IF(ISBLANK(Instructions!M25),"",Instructions!M25)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J18" s="1" t="str">
+      <c r="J18" s="1">
         <f>IF(ISBLANK(Instructions!N25),"",Instructions!N25)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K18" t="str">
         <f>IF(ISBLANK(Instructions!O25),"",Instructions!O25)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L18" t="str">
         <f>IF(ISBLANK(Instructions!P25),"",Instructions!P25)</f>
@@ -6639,47 +5424,47 @@
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>_xlfn.CONCAT(Instructions!C26,Instructions!D26,"D",TEXT(Instructions!B26,"YY"),TEXT(Instructions!B26,"MM"),"-",TEXT(Instructions!F26,"00"))</f>
-        <v>LXND2504-33</v>
+        <v>LXND2509-33</v>
       </c>
       <c r="B19" t="str" cm="1">
         <f t="array" ref="B19">_xlfn.CONCAT(Instructions!C26,Instructions!A26,"_",TEXT(Instructions!B26,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C26)*(Table1[SectionName]=Instructions!D26)*(Table1[StationNumber]=Instructions!E26)*(Instructions!B26&gt;Table1[StartDate])*(Instructions!B26&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C19">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C19" t="str">
         <f>Instructions!G26</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D19">
         <f>Instructions!H26</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="E19" t="str">
         <f>Instructions!I26</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
+        <v>No</v>
+      </c>
+      <c r="F19" t="str">
         <f>Instructions!J26</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G19" t="str">
         <f>Instructions!K26</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H19" s="1">
         <f>IF(ISBLANK(Instructions!L26),"",Instructions!L26)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I19" t="str">
         <f>IF(ISBLANK(Instructions!M26),"",Instructions!M26)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J19" s="1" t="str">
+      <c r="J19" s="1">
         <f>IF(ISBLANK(Instructions!N26),"",Instructions!N26)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K19" t="str">
         <f>IF(ISBLANK(Instructions!O26),"",Instructions!O26)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L19" t="str">
         <f>IF(ISBLANK(Instructions!P26),"",Instructions!P26)</f>
@@ -6693,47 +5478,47 @@
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>_xlfn.CONCAT(Instructions!C27,Instructions!D27,"D",TEXT(Instructions!B27,"YY"),TEXT(Instructions!B27,"MM"),"-",TEXT(Instructions!F27,"00"))</f>
-        <v>LXND2504-34</v>
+        <v>LXND2509-34</v>
       </c>
       <c r="B20" t="str" cm="1">
         <f t="array" ref="B20">_xlfn.CONCAT(Instructions!C27,Instructions!A27,"_",TEXT(Instructions!B27,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C27)*(Table1[SectionName]=Instructions!D27)*(Table1[StationNumber]=Instructions!E27)*(Instructions!B27&gt;Table1[StartDate])*(Instructions!B27&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C20">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C20" t="str">
         <f>Instructions!G27</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D20">
         <f>Instructions!H27</f>
-        <v>0</v>
-      </c>
-      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="str">
         <f>Instructions!I27</f>
-        <v>0</v>
-      </c>
-      <c r="F20">
+        <v>No</v>
+      </c>
+      <c r="F20" t="str">
         <f>Instructions!J27</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G20" t="str">
         <f>Instructions!K27</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H20" s="1">
         <f>IF(ISBLANK(Instructions!L27),"",Instructions!L27)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I20" t="str">
         <f>IF(ISBLANK(Instructions!M27),"",Instructions!M27)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J20" s="1" t="str">
+      <c r="J20" s="1">
         <f>IF(ISBLANK(Instructions!N27),"",Instructions!N27)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K20" t="str">
         <f>IF(ISBLANK(Instructions!O27),"",Instructions!O27)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L20" t="str">
         <f>IF(ISBLANK(Instructions!P27),"",Instructions!P27)</f>
@@ -6747,51 +5532,51 @@
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>_xlfn.CONCAT(Instructions!C28,Instructions!D28,"D",TEXT(Instructions!B28,"YY"),TEXT(Instructions!B28,"MM"),"-",TEXT(Instructions!F28,"00"))</f>
-        <v>LXND2504-35</v>
+        <v>LXND2509-35</v>
       </c>
       <c r="B21" t="str" cm="1">
         <f t="array" ref="B21">_xlfn.CONCAT(Instructions!C28,Instructions!A28,"_",TEXT(Instructions!B28,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C28)*(Table1[SectionName]=Instructions!D28)*(Table1[StationNumber]=Instructions!E28)*(Instructions!B28&gt;Table1[StartDate])*(Instructions!B28&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C21">
+        <v>LXCOLL_20250903_1_0243_1</v>
+      </c>
+      <c r="C21" t="str">
         <f>Instructions!G28</f>
-        <v>0</v>
+        <v>Z</v>
       </c>
       <c r="D21">
         <f>Instructions!H28</f>
-        <v>0</v>
-      </c>
-      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="str">
         <f>Instructions!I28</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
+        <v>No</v>
+      </c>
+      <c r="F21" t="str">
         <f>Instructions!J28</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G21" t="str">
         <f>Instructions!K28</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H21" s="1">
         <f>IF(ISBLANK(Instructions!L28),"",Instructions!L28)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I21" t="str">
         <f>IF(ISBLANK(Instructions!M28),"",Instructions!M28)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J21" s="1" t="str">
+      <c r="J21" s="1">
         <f>IF(ISBLANK(Instructions!N28),"",Instructions!N28)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K21" t="str">
         <f>IF(ISBLANK(Instructions!O28),"",Instructions!O28)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L21" t="str">
         <f>IF(ISBLANK(Instructions!P28),"",Instructions!P28)</f>
-        <v/>
+        <v>1=mat</v>
       </c>
       <c r="M21" t="str">
         <f>Instructions!Q28</f>
@@ -6801,47 +5586,47 @@
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>_xlfn.CONCAT(Instructions!C29,Instructions!D29,"D",TEXT(Instructions!B29,"YY"),TEXT(Instructions!B29,"MM"),"-",TEXT(Instructions!F29,"00"))</f>
-        <v>LXND2504-36</v>
+        <v>LXND2509-36</v>
       </c>
       <c r="B22" t="str" cm="1">
         <f t="array" ref="B22">_xlfn.CONCAT(Instructions!C29,Instructions!A29,"_",TEXT(Instructions!B29,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C29)*(Table1[SectionName]=Instructions!D29)*(Table1[StationNumber]=Instructions!E29)*(Instructions!B29&gt;Table1[StartDate])*(Instructions!B29&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C22">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C22" t="str">
         <f>Instructions!G29</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D22">
         <f>Instructions!H29</f>
-        <v>0</v>
-      </c>
-      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="str">
         <f>Instructions!I29</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
+        <v>No</v>
+      </c>
+      <c r="F22" t="str">
         <f>Instructions!J29</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G22" t="str">
         <f>Instructions!K29</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H22" s="1">
         <f>IF(ISBLANK(Instructions!L29),"",Instructions!L29)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I22" t="str">
         <f>IF(ISBLANK(Instructions!M29),"",Instructions!M29)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J22" s="1" t="str">
+      <c r="J22" s="1">
         <f>IF(ISBLANK(Instructions!N29),"",Instructions!N29)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K22" t="str">
         <f>IF(ISBLANK(Instructions!O29),"",Instructions!O29)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L22" t="str">
         <f>IF(ISBLANK(Instructions!P29),"",Instructions!P29)</f>
@@ -6855,47 +5640,47 @@
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>_xlfn.CONCAT(Instructions!C30,Instructions!D30,"D",TEXT(Instructions!B30,"YY"),TEXT(Instructions!B30,"MM"),"-",TEXT(Instructions!F30,"00"))</f>
-        <v>LXND2504-37</v>
+        <v>LXND2509-37</v>
       </c>
       <c r="B23" t="str" cm="1">
         <f t="array" ref="B23">_xlfn.CONCAT(Instructions!C30,Instructions!A30,"_",TEXT(Instructions!B30,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C30)*(Table1[SectionName]=Instructions!D30)*(Table1[StationNumber]=Instructions!E30)*(Instructions!B30&gt;Table1[StartDate])*(Instructions!B30&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C23">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C23" t="str">
         <f>Instructions!G30</f>
-        <v>0</v>
+        <v>F</v>
       </c>
       <c r="D23">
         <f>Instructions!H30</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="str">
         <f>Instructions!I30</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
+        <v>No</v>
+      </c>
+      <c r="F23" t="str">
         <f>Instructions!J30</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G23" t="str">
         <f>Instructions!K30</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H23" s="1">
         <f>IF(ISBLANK(Instructions!L30),"",Instructions!L30)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I23" t="str">
         <f>IF(ISBLANK(Instructions!M30),"",Instructions!M30)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J23" s="1" t="str">
+      <c r="J23" s="1">
         <f>IF(ISBLANK(Instructions!N30),"",Instructions!N30)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K23" t="str">
         <f>IF(ISBLANK(Instructions!O30),"",Instructions!O30)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L23" t="str">
         <f>IF(ISBLANK(Instructions!P30),"",Instructions!P30)</f>
@@ -6909,47 +5694,47 @@
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>_xlfn.CONCAT(Instructions!C31,Instructions!D31,"D",TEXT(Instructions!B31,"YY"),TEXT(Instructions!B31,"MM"),"-",TEXT(Instructions!F31,"00"))</f>
-        <v>LXND2504-38</v>
+        <v>LXND2509-38</v>
       </c>
       <c r="B24" t="str" cm="1">
         <f t="array" ref="B24">_xlfn.CONCAT(Instructions!C31,Instructions!A31,"_",TEXT(Instructions!B31,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C31)*(Table1[SectionName]=Instructions!D31)*(Table1[StationNumber]=Instructions!E31)*(Instructions!B31&gt;Table1[StartDate])*(Instructions!B31&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C24">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C24" t="str">
         <f>Instructions!G31</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D24">
         <f>Instructions!H31</f>
-        <v>0</v>
-      </c>
-      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="str">
         <f>Instructions!I31</f>
-        <v>0</v>
-      </c>
-      <c r="F24">
+        <v>No</v>
+      </c>
+      <c r="F24" t="str">
         <f>Instructions!J31</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G24" t="str">
         <f>Instructions!K31</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H24" s="1">
         <f>IF(ISBLANK(Instructions!L31),"",Instructions!L31)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I24" t="str">
         <f>IF(ISBLANK(Instructions!M31),"",Instructions!M31)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J24" s="1" t="str">
+      <c r="J24" s="1">
         <f>IF(ISBLANK(Instructions!N31),"",Instructions!N31)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K24" t="str">
         <f>IF(ISBLANK(Instructions!O31),"",Instructions!O31)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L24" t="str">
         <f>IF(ISBLANK(Instructions!P31),"",Instructions!P31)</f>
@@ -6963,47 +5748,47 @@
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>_xlfn.CONCAT(Instructions!C32,Instructions!D32,"D",TEXT(Instructions!B32,"YY"),TEXT(Instructions!B32,"MM"),"-",TEXT(Instructions!F32,"00"))</f>
-        <v>LXND2504-39</v>
+        <v>LXND2509-39</v>
       </c>
       <c r="B25" t="str" cm="1">
         <f t="array" ref="B25">_xlfn.CONCAT(Instructions!C32,Instructions!A32,"_",TEXT(Instructions!B32,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C32)*(Table1[SectionName]=Instructions!D32)*(Table1[StationNumber]=Instructions!E32)*(Instructions!B32&gt;Table1[StartDate])*(Instructions!B32&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0243_1</v>
-      </c>
-      <c r="C25">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C25" t="str">
         <f>Instructions!G32</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D25">
         <f>Instructions!H32</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="str">
         <f>Instructions!I32</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
+        <v>No</v>
+      </c>
+      <c r="F25" t="str">
         <f>Instructions!J32</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G25" t="str">
         <f>Instructions!K32</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H25" s="1">
         <f>IF(ISBLANK(Instructions!L32),"",Instructions!L32)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I25" t="str">
         <f>IF(ISBLANK(Instructions!M32),"",Instructions!M32)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J25" s="1" t="str">
+      <c r="J25" s="1">
         <f>IF(ISBLANK(Instructions!N32),"",Instructions!N32)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K25" t="str">
         <f>IF(ISBLANK(Instructions!O32),"",Instructions!O32)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L25" t="str">
         <f>IF(ISBLANK(Instructions!P32),"",Instructions!P32)</f>
@@ -7017,47 +5802,47 @@
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>_xlfn.CONCAT(Instructions!C33,Instructions!D33,"D",TEXT(Instructions!B33,"YY"),TEXT(Instructions!B33,"MM"),"-",TEXT(Instructions!F33,"00"))</f>
-        <v>LXND2504-40</v>
+        <v>LXND2509-40</v>
       </c>
       <c r="B26" t="str" cm="1">
         <f t="array" ref="B26">_xlfn.CONCAT(Instructions!C33,Instructions!A33,"_",TEXT(Instructions!B33,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C33)*(Table1[SectionName]=Instructions!D33)*(Table1[StationNumber]=Instructions!E33)*(Instructions!B33&gt;Table1[StartDate])*(Instructions!B33&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C26">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C26" t="str">
         <f>Instructions!G33</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D26">
         <f>Instructions!H33</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="E26" t="str">
         <f>Instructions!I33</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
+        <v>Yes</v>
+      </c>
+      <c r="F26" t="str">
         <f>Instructions!J33</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G26" t="str">
         <f>Instructions!K33</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H26" s="1">
         <f>IF(ISBLANK(Instructions!L33),"",Instructions!L33)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I26" t="str">
         <f>IF(ISBLANK(Instructions!M33),"",Instructions!M33)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J26" s="1" t="str">
+      <c r="J26" s="1">
         <f>IF(ISBLANK(Instructions!N33),"",Instructions!N33)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K26" t="str">
         <f>IF(ISBLANK(Instructions!O33),"",Instructions!O33)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L26" t="str">
         <f>IF(ISBLANK(Instructions!P33),"",Instructions!P33)</f>
@@ -7071,47 +5856,47 @@
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>_xlfn.CONCAT(Instructions!C34,Instructions!D34,"D",TEXT(Instructions!B34,"YY"),TEXT(Instructions!B34,"MM"),"-",TEXT(Instructions!F34,"00"))</f>
-        <v>LXND2504-41</v>
+        <v>LXND2509-41</v>
       </c>
       <c r="B27" t="str" cm="1">
         <f t="array" ref="B27">_xlfn.CONCAT(Instructions!C34,Instructions!A34,"_",TEXT(Instructions!B34,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C34)*(Table1[SectionName]=Instructions!D34)*(Table1[StationNumber]=Instructions!E34)*(Instructions!B34&gt;Table1[StartDate])*(Instructions!B34&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C27">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C27" t="str">
         <f>Instructions!G34</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D27">
         <f>Instructions!H34</f>
-        <v>0</v>
-      </c>
-      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="str">
         <f>Instructions!I34</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
+        <v>No</v>
+      </c>
+      <c r="F27" t="str">
         <f>Instructions!J34</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G27" t="str">
         <f>Instructions!K34</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H27" s="1">
         <f>IF(ISBLANK(Instructions!L34),"",Instructions!L34)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I27" t="str">
         <f>IF(ISBLANK(Instructions!M34),"",Instructions!M34)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J27" s="1" t="str">
+      <c r="J27" s="1">
         <f>IF(ISBLANK(Instructions!N34),"",Instructions!N34)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K27" t="str">
         <f>IF(ISBLANK(Instructions!O34),"",Instructions!O34)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L27" t="str">
         <f>IF(ISBLANK(Instructions!P34),"",Instructions!P34)</f>
@@ -7125,47 +5910,47 @@
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>_xlfn.CONCAT(Instructions!C35,Instructions!D35,"D",TEXT(Instructions!B35,"YY"),TEXT(Instructions!B35,"MM"),"-",TEXT(Instructions!F35,"00"))</f>
-        <v>LXND2504-42</v>
+        <v>LXND2509-42</v>
       </c>
       <c r="B28" t="str" cm="1">
         <f t="array" ref="B28">_xlfn.CONCAT(Instructions!C35,Instructions!A35,"_",TEXT(Instructions!B35,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C35)*(Table1[SectionName]=Instructions!D35)*(Table1[StationNumber]=Instructions!E35)*(Instructions!B35&gt;Table1[StartDate])*(Instructions!B35&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C28">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C28" t="str">
         <f>Instructions!G35</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D28">
         <f>Instructions!H35</f>
-        <v>0</v>
-      </c>
-      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="E28" t="str">
         <f>Instructions!I35</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
+        <v>No</v>
+      </c>
+      <c r="F28" t="str">
         <f>Instructions!J35</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G28" t="str">
         <f>Instructions!K35</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H28" s="1">
         <f>IF(ISBLANK(Instructions!L35),"",Instructions!L35)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I28" t="str">
         <f>IF(ISBLANK(Instructions!M35),"",Instructions!M35)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J28" s="1" t="str">
+      <c r="J28" s="1">
         <f>IF(ISBLANK(Instructions!N35),"",Instructions!N35)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K28" t="str">
         <f>IF(ISBLANK(Instructions!O35),"",Instructions!O35)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L28" t="str">
         <f>IF(ISBLANK(Instructions!P35),"",Instructions!P35)</f>
@@ -7179,47 +5964,47 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f>_xlfn.CONCAT(Instructions!C36,Instructions!D36,"D",TEXT(Instructions!B36,"YY"),TEXT(Instructions!B36,"MM"),"-",TEXT(Instructions!F36,"00"))</f>
-        <v>LXND2504-43</v>
+        <v>LXND2509-43</v>
       </c>
       <c r="B29" t="str" cm="1">
         <f t="array" ref="B29">_xlfn.CONCAT(Instructions!C36,Instructions!A36,"_",TEXT(Instructions!B36,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C36)*(Table1[SectionName]=Instructions!D36)*(Table1[StationNumber]=Instructions!E36)*(Instructions!B36&gt;Table1[StartDate])*(Instructions!B36&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C29">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C29" t="str">
         <f>Instructions!G36</f>
-        <v>0</v>
+        <v>M</v>
       </c>
       <c r="D29">
         <f>Instructions!H36</f>
-        <v>0</v>
-      </c>
-      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="str">
         <f>Instructions!I36</f>
-        <v>0</v>
-      </c>
-      <c r="F29">
+        <v>No</v>
+      </c>
+      <c r="F29" t="str">
         <f>Instructions!J36</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G29" t="str">
         <f>Instructions!K36</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H29" s="1">
         <f>IF(ISBLANK(Instructions!L36),"",Instructions!L36)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I29" t="str">
         <f>IF(ISBLANK(Instructions!M36),"",Instructions!M36)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J29" s="1" t="str">
+      <c r="J29" s="1">
         <f>IF(ISBLANK(Instructions!N36),"",Instructions!N36)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K29" t="str">
         <f>IF(ISBLANK(Instructions!O36),"",Instructions!O36)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L29" t="str">
         <f>IF(ISBLANK(Instructions!P36),"",Instructions!P36)</f>
@@ -7233,51 +6018,51 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f>_xlfn.CONCAT(Instructions!C37,Instructions!D37,"D",TEXT(Instructions!B37,"YY"),TEXT(Instructions!B37,"MM"),"-",TEXT(Instructions!F37,"00"))</f>
-        <v>LXND2504-44</v>
+        <v>LXND2509-44</v>
       </c>
       <c r="B30" t="str" cm="1">
         <f t="array" ref="B30">_xlfn.CONCAT(Instructions!C37,Instructions!A37,"_",TEXT(Instructions!B37,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C37)*(Table1[SectionName]=Instructions!D37)*(Table1[StationNumber]=Instructions!E37)*(Instructions!B37&gt;Table1[StartDate])*(Instructions!B37&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C30">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C30" t="str">
         <f>Instructions!G37</f>
-        <v>0</v>
+        <v>Z</v>
       </c>
       <c r="D30">
         <f>Instructions!H37</f>
-        <v>0</v>
-      </c>
-      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="str">
         <f>Instructions!I37</f>
-        <v>0</v>
-      </c>
-      <c r="F30">
+        <v>No</v>
+      </c>
+      <c r="F30" t="str">
         <f>Instructions!J37</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G30" t="str">
         <f>Instructions!K37</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H30" s="1">
         <f>IF(ISBLANK(Instructions!L37),"",Instructions!L37)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I30" t="str">
         <f>IF(ISBLANK(Instructions!M37),"",Instructions!M37)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J30" s="1" t="str">
+      <c r="J30" s="1">
         <f>IF(ISBLANK(Instructions!N37),"",Instructions!N37)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K30" t="str">
         <f>IF(ISBLANK(Instructions!O37),"",Instructions!O37)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L30" t="str">
         <f>IF(ISBLANK(Instructions!P37),"",Instructions!P37)</f>
-        <v/>
+        <v>0=imm</v>
       </c>
       <c r="M30" t="str">
         <f>Instructions!Q37</f>
@@ -7287,2376 +6072,54 @@
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f>_xlfn.CONCAT(Instructions!C38,Instructions!D38,"D",TEXT(Instructions!B38,"YY"),TEXT(Instructions!B38,"MM"),"-",TEXT(Instructions!F38,"00"))</f>
-        <v>LXND2504-45</v>
+        <v>LXND2509-45</v>
       </c>
       <c r="B31" t="str" cm="1">
         <f t="array" ref="B31">_xlfn.CONCAT(Instructions!C38,Instructions!A38,"_",TEXT(Instructions!B38,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C38)*(Table1[SectionName]=Instructions!D38)*(Table1[StationNumber]=Instructions!E38)*(Instructions!B38&gt;Table1[StartDate])*(Instructions!B38&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C31">
+        <v>LXCOLL_20250903_1_0244_1</v>
+      </c>
+      <c r="C31" t="str">
         <f>Instructions!G38</f>
-        <v>0</v>
+        <v>Z</v>
       </c>
       <c r="D31">
         <f>Instructions!H38</f>
-        <v>0</v>
-      </c>
-      <c r="E31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="str">
         <f>Instructions!I38</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
+        <v>No</v>
+      </c>
+      <c r="F31" t="str">
         <f>Instructions!J38</f>
-        <v>0</v>
+        <v>N</v>
       </c>
       <c r="G31" t="str">
         <f>Instructions!K38</f>
-        <v>Entered</v>
+        <v>Proofed</v>
       </c>
       <c r="H31" s="1">
         <f>IF(ISBLANK(Instructions!L38),"",Instructions!L38)</f>
-        <v>45771</v>
+        <v>45957</v>
       </c>
       <c r="I31" t="str">
         <f>IF(ISBLANK(Instructions!M38),"",Instructions!M38)</f>
         <v>Lily Harmon</v>
       </c>
-      <c r="J31" s="1" t="str">
+      <c r="J31" s="1">
         <f>IF(ISBLANK(Instructions!N38),"",Instructions!N38)</f>
-        <v/>
+        <v>45957</v>
       </c>
       <c r="K31" t="str">
         <f>IF(ISBLANK(Instructions!O38),"",Instructions!O38)</f>
-        <v/>
+        <v>Lily Harmon</v>
       </c>
       <c r="L31" t="str">
         <f>IF(ISBLANK(Instructions!P38),"",Instructions!P38)</f>
-        <v/>
+        <v>0=imm</v>
       </c>
       <c r="M31" t="str">
         <f>Instructions!Q38</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f>_xlfn.CONCAT(Instructions!C39,Instructions!D39,"D",TEXT(Instructions!B39,"YY"),TEXT(Instructions!B39,"MM"),"-",TEXT(Instructions!F39,"00"))</f>
-        <v>LXND2504-46</v>
-      </c>
-      <c r="B32" t="str" cm="1">
-        <f t="array" ref="B32">_xlfn.CONCAT(Instructions!C39,Instructions!A39,"_",TEXT(Instructions!B39,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C39)*(Table1[SectionName]=Instructions!D39)*(Table1[StationNumber]=Instructions!E39)*(Instructions!B39&gt;Table1[StartDate])*(Instructions!B39&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C32">
-        <f>Instructions!G39</f>
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <f>Instructions!H39</f>
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <f>Instructions!I39</f>
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <f>Instructions!J39</f>
-        <v>0</v>
-      </c>
-      <c r="G32" t="str">
-        <f>Instructions!K39</f>
-        <v>Entered</v>
-      </c>
-      <c r="H32" s="1">
-        <f>IF(ISBLANK(Instructions!L39),"",Instructions!L39)</f>
-        <v>45771</v>
-      </c>
-      <c r="I32" t="str">
-        <f>IF(ISBLANK(Instructions!M39),"",Instructions!M39)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J32" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N39),"",Instructions!N39)</f>
-        <v/>
-      </c>
-      <c r="K32" t="str">
-        <f>IF(ISBLANK(Instructions!O39),"",Instructions!O39)</f>
-        <v/>
-      </c>
-      <c r="L32" t="str">
-        <f>IF(ISBLANK(Instructions!P39),"",Instructions!P39)</f>
-        <v/>
-      </c>
-      <c r="M32" t="str">
-        <f>Instructions!Q39</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f>_xlfn.CONCAT(Instructions!C40,Instructions!D40,"D",TEXT(Instructions!B40,"YY"),TEXT(Instructions!B40,"MM"),"-",TEXT(Instructions!F40,"00"))</f>
-        <v>LXND2504-47</v>
-      </c>
-      <c r="B33" t="str" cm="1">
-        <f t="array" ref="B33">_xlfn.CONCAT(Instructions!C40,Instructions!A40,"_",TEXT(Instructions!B40,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C40)*(Table1[SectionName]=Instructions!D40)*(Table1[StationNumber]=Instructions!E40)*(Instructions!B40&gt;Table1[StartDate])*(Instructions!B40&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C33">
-        <f>Instructions!G40</f>
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <f>Instructions!H40</f>
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <f>Instructions!I40</f>
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <f>Instructions!J40</f>
-        <v>0</v>
-      </c>
-      <c r="G33" t="str">
-        <f>Instructions!K40</f>
-        <v>Entered</v>
-      </c>
-      <c r="H33" s="1">
-        <f>IF(ISBLANK(Instructions!L40),"",Instructions!L40)</f>
-        <v>45771</v>
-      </c>
-      <c r="I33" t="str">
-        <f>IF(ISBLANK(Instructions!M40),"",Instructions!M40)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J33" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N40),"",Instructions!N40)</f>
-        <v/>
-      </c>
-      <c r="K33" t="str">
-        <f>IF(ISBLANK(Instructions!O40),"",Instructions!O40)</f>
-        <v/>
-      </c>
-      <c r="L33" t="str">
-        <f>IF(ISBLANK(Instructions!P40),"",Instructions!P40)</f>
-        <v/>
-      </c>
-      <c r="M33" t="str">
-        <f>Instructions!Q40</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f>_xlfn.CONCAT(Instructions!C41,Instructions!D41,"D",TEXT(Instructions!B41,"YY"),TEXT(Instructions!B41,"MM"),"-",TEXT(Instructions!F41,"00"))</f>
-        <v>LXND2504-48</v>
-      </c>
-      <c r="B34" t="str" cm="1">
-        <f t="array" ref="B34">_xlfn.CONCAT(Instructions!C41,Instructions!A41,"_",TEXT(Instructions!B41,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C41)*(Table1[SectionName]=Instructions!D41)*(Table1[StationNumber]=Instructions!E41)*(Instructions!B41&gt;Table1[StartDate])*(Instructions!B41&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C34">
-        <f>Instructions!G41</f>
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <f>Instructions!H41</f>
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <f>Instructions!I41</f>
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <f>Instructions!J41</f>
-        <v>0</v>
-      </c>
-      <c r="G34" t="str">
-        <f>Instructions!K41</f>
-        <v>Entered</v>
-      </c>
-      <c r="H34" s="1">
-        <f>IF(ISBLANK(Instructions!L41),"",Instructions!L41)</f>
-        <v>45771</v>
-      </c>
-      <c r="I34" t="str">
-        <f>IF(ISBLANK(Instructions!M41),"",Instructions!M41)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J34" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N41),"",Instructions!N41)</f>
-        <v/>
-      </c>
-      <c r="K34" t="str">
-        <f>IF(ISBLANK(Instructions!O41),"",Instructions!O41)</f>
-        <v/>
-      </c>
-      <c r="L34" t="str">
-        <f>IF(ISBLANK(Instructions!P41),"",Instructions!P41)</f>
-        <v/>
-      </c>
-      <c r="M34" t="str">
-        <f>Instructions!Q41</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f>_xlfn.CONCAT(Instructions!C42,Instructions!D42,"D",TEXT(Instructions!B42,"YY"),TEXT(Instructions!B42,"MM"),"-",TEXT(Instructions!F42,"00"))</f>
-        <v>LXND2504-49</v>
-      </c>
-      <c r="B35" t="str" cm="1">
-        <f t="array" ref="B35">_xlfn.CONCAT(Instructions!C42,Instructions!A42,"_",TEXT(Instructions!B42,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C42)*(Table1[SectionName]=Instructions!D42)*(Table1[StationNumber]=Instructions!E42)*(Instructions!B42&gt;Table1[StartDate])*(Instructions!B42&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C35">
-        <f>Instructions!G42</f>
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <f>Instructions!H42</f>
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <f>Instructions!I42</f>
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <f>Instructions!J42</f>
-        <v>0</v>
-      </c>
-      <c r="G35" t="str">
-        <f>Instructions!K42</f>
-        <v>Entered</v>
-      </c>
-      <c r="H35" s="1">
-        <f>IF(ISBLANK(Instructions!L42),"",Instructions!L42)</f>
-        <v>45771</v>
-      </c>
-      <c r="I35" t="str">
-        <f>IF(ISBLANK(Instructions!M42),"",Instructions!M42)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J35" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N42),"",Instructions!N42)</f>
-        <v/>
-      </c>
-      <c r="K35" t="str">
-        <f>IF(ISBLANK(Instructions!O42),"",Instructions!O42)</f>
-        <v/>
-      </c>
-      <c r="L35" t="str">
-        <f>IF(ISBLANK(Instructions!P42),"",Instructions!P42)</f>
-        <v/>
-      </c>
-      <c r="M35" t="str">
-        <f>Instructions!Q42</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f>_xlfn.CONCAT(Instructions!C43,Instructions!D43,"D",TEXT(Instructions!B43,"YY"),TEXT(Instructions!B43,"MM"),"-",TEXT(Instructions!F43,"00"))</f>
-        <v>LXND2504-50</v>
-      </c>
-      <c r="B36" t="str" cm="1">
-        <f t="array" ref="B36">_xlfn.CONCAT(Instructions!C43,Instructions!A43,"_",TEXT(Instructions!B43,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C43)*(Table1[SectionName]=Instructions!D43)*(Table1[StationNumber]=Instructions!E43)*(Instructions!B43&gt;Table1[StartDate])*(Instructions!B43&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250408_1_0244_1</v>
-      </c>
-      <c r="C36">
-        <f>Instructions!G43</f>
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <f>Instructions!H43</f>
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <f>Instructions!I43</f>
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <f>Instructions!J43</f>
-        <v>0</v>
-      </c>
-      <c r="G36" t="str">
-        <f>Instructions!K43</f>
-        <v>Entered</v>
-      </c>
-      <c r="H36" s="1">
-        <f>IF(ISBLANK(Instructions!L43),"",Instructions!L43)</f>
-        <v>45771</v>
-      </c>
-      <c r="I36" t="str">
-        <f>IF(ISBLANK(Instructions!M43),"",Instructions!M43)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J36" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N43),"",Instructions!N43)</f>
-        <v/>
-      </c>
-      <c r="K36" t="str">
-        <f>IF(ISBLANK(Instructions!O43),"",Instructions!O43)</f>
-        <v/>
-      </c>
-      <c r="L36" t="str">
-        <f>IF(ISBLANK(Instructions!P43),"",Instructions!P43)</f>
-        <v/>
-      </c>
-      <c r="M36" t="str">
-        <f>Instructions!Q43</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f>_xlfn.CONCAT(Instructions!C44,Instructions!D44,"D",TEXT(Instructions!B44,"YY"),TEXT(Instructions!B44,"MM"),"-",TEXT(Instructions!F44,"00"))</f>
-        <v>LXND2505-16</v>
-      </c>
-      <c r="B37" t="str" cm="1">
-        <f t="array" ref="B37">_xlfn.CONCAT(Instructions!C44,Instructions!A44,"_",TEXT(Instructions!B44,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C44)*(Table1[SectionName]=Instructions!D44)*(Table1[StationNumber]=Instructions!E44)*(Instructions!B44&gt;Table1[StartDate])*(Instructions!B44&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C37">
-        <f>Instructions!G44</f>
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <f>Instructions!H44</f>
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <f>Instructions!I44</f>
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <f>Instructions!J44</f>
-        <v>0</v>
-      </c>
-      <c r="G37" t="str">
-        <f>Instructions!K44</f>
-        <v>Entered</v>
-      </c>
-      <c r="H37" s="1">
-        <f>IF(ISBLANK(Instructions!L44),"",Instructions!L44)</f>
-        <v>45804</v>
-      </c>
-      <c r="I37" t="str">
-        <f>IF(ISBLANK(Instructions!M44),"",Instructions!M44)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J37" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N44),"",Instructions!N44)</f>
-        <v/>
-      </c>
-      <c r="K37" t="str">
-        <f>IF(ISBLANK(Instructions!O44),"",Instructions!O44)</f>
-        <v/>
-      </c>
-      <c r="L37" t="str">
-        <f>IF(ISBLANK(Instructions!P44),"",Instructions!P44)</f>
-        <v/>
-      </c>
-      <c r="M37" t="str">
-        <f>Instructions!Q44</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f>_xlfn.CONCAT(Instructions!C45,Instructions!D45,"D",TEXT(Instructions!B45,"YY"),TEXT(Instructions!B45,"MM"),"-",TEXT(Instructions!F45,"00"))</f>
-        <v>LXND2505-17</v>
-      </c>
-      <c r="B38" t="str" cm="1">
-        <f t="array" ref="B38">_xlfn.CONCAT(Instructions!C45,Instructions!A45,"_",TEXT(Instructions!B45,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C45)*(Table1[SectionName]=Instructions!D45)*(Table1[StationNumber]=Instructions!E45)*(Instructions!B45&gt;Table1[StartDate])*(Instructions!B45&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C38">
-        <f>Instructions!G45</f>
-        <v>0</v>
-      </c>
-      <c r="D38">
-        <f>Instructions!H45</f>
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <f>Instructions!I45</f>
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <f>Instructions!J45</f>
-        <v>0</v>
-      </c>
-      <c r="G38" t="str">
-        <f>Instructions!K45</f>
-        <v>Entered</v>
-      </c>
-      <c r="H38" s="1">
-        <f>IF(ISBLANK(Instructions!L45),"",Instructions!L45)</f>
-        <v>45804</v>
-      </c>
-      <c r="I38" t="str">
-        <f>IF(ISBLANK(Instructions!M45),"",Instructions!M45)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J38" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N45),"",Instructions!N45)</f>
-        <v/>
-      </c>
-      <c r="K38" t="str">
-        <f>IF(ISBLANK(Instructions!O45),"",Instructions!O45)</f>
-        <v/>
-      </c>
-      <c r="L38" t="str">
-        <f>IF(ISBLANK(Instructions!P45),"",Instructions!P45)</f>
-        <v/>
-      </c>
-      <c r="M38" t="str">
-        <f>Instructions!Q45</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="str">
-        <f>_xlfn.CONCAT(Instructions!C46,Instructions!D46,"D",TEXT(Instructions!B46,"YY"),TEXT(Instructions!B46,"MM"),"-",TEXT(Instructions!F46,"00"))</f>
-        <v>LXND2505-18</v>
-      </c>
-      <c r="B39" t="str" cm="1">
-        <f t="array" ref="B39">_xlfn.CONCAT(Instructions!C46,Instructions!A46,"_",TEXT(Instructions!B46,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C46)*(Table1[SectionName]=Instructions!D46)*(Table1[StationNumber]=Instructions!E46)*(Instructions!B46&gt;Table1[StartDate])*(Instructions!B46&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C39">
-        <f>Instructions!G46</f>
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <f>Instructions!H46</f>
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <f>Instructions!I46</f>
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <f>Instructions!J46</f>
-        <v>0</v>
-      </c>
-      <c r="G39" t="str">
-        <f>Instructions!K46</f>
-        <v>Entered</v>
-      </c>
-      <c r="H39" s="1">
-        <f>IF(ISBLANK(Instructions!L46),"",Instructions!L46)</f>
-        <v>45804</v>
-      </c>
-      <c r="I39" t="str">
-        <f>IF(ISBLANK(Instructions!M46),"",Instructions!M46)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J39" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N46),"",Instructions!N46)</f>
-        <v/>
-      </c>
-      <c r="K39" t="str">
-        <f>IF(ISBLANK(Instructions!O46),"",Instructions!O46)</f>
-        <v/>
-      </c>
-      <c r="L39" t="str">
-        <f>IF(ISBLANK(Instructions!P46),"",Instructions!P46)</f>
-        <v/>
-      </c>
-      <c r="M39" t="str">
-        <f>Instructions!Q46</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="str">
-        <f>_xlfn.CONCAT(Instructions!C47,Instructions!D47,"D",TEXT(Instructions!B47,"YY"),TEXT(Instructions!B47,"MM"),"-",TEXT(Instructions!F47,"00"))</f>
-        <v>LXND2505-19</v>
-      </c>
-      <c r="B40" t="str" cm="1">
-        <f t="array" ref="B40">_xlfn.CONCAT(Instructions!C47,Instructions!A47,"_",TEXT(Instructions!B47,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C47)*(Table1[SectionName]=Instructions!D47)*(Table1[StationNumber]=Instructions!E47)*(Instructions!B47&gt;Table1[StartDate])*(Instructions!B47&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C40">
-        <f>Instructions!G47</f>
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <f>Instructions!H47</f>
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <f>Instructions!I47</f>
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <f>Instructions!J47</f>
-        <v>0</v>
-      </c>
-      <c r="G40" t="str">
-        <f>Instructions!K47</f>
-        <v>Entered</v>
-      </c>
-      <c r="H40" s="1">
-        <f>IF(ISBLANK(Instructions!L47),"",Instructions!L47)</f>
-        <v>45804</v>
-      </c>
-      <c r="I40" t="str">
-        <f>IF(ISBLANK(Instructions!M47),"",Instructions!M47)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J40" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N47),"",Instructions!N47)</f>
-        <v/>
-      </c>
-      <c r="K40" t="str">
-        <f>IF(ISBLANK(Instructions!O47),"",Instructions!O47)</f>
-        <v/>
-      </c>
-      <c r="L40" t="str">
-        <f>IF(ISBLANK(Instructions!P47),"",Instructions!P47)</f>
-        <v/>
-      </c>
-      <c r="M40" t="str">
-        <f>Instructions!Q47</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="str">
-        <f>_xlfn.CONCAT(Instructions!C48,Instructions!D48,"D",TEXT(Instructions!B48,"YY"),TEXT(Instructions!B48,"MM"),"-",TEXT(Instructions!F48,"00"))</f>
-        <v>LXND2505-20</v>
-      </c>
-      <c r="B41" t="str" cm="1">
-        <f t="array" ref="B41">_xlfn.CONCAT(Instructions!C48,Instructions!A48,"_",TEXT(Instructions!B48,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C48)*(Table1[SectionName]=Instructions!D48)*(Table1[StationNumber]=Instructions!E48)*(Instructions!B48&gt;Table1[StartDate])*(Instructions!B48&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C41">
-        <f>Instructions!G48</f>
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <f>Instructions!H48</f>
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <f>Instructions!I48</f>
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <f>Instructions!J48</f>
-        <v>0</v>
-      </c>
-      <c r="G41" t="str">
-        <f>Instructions!K48</f>
-        <v>Entered</v>
-      </c>
-      <c r="H41" s="1">
-        <f>IF(ISBLANK(Instructions!L48),"",Instructions!L48)</f>
-        <v>45804</v>
-      </c>
-      <c r="I41" t="str">
-        <f>IF(ISBLANK(Instructions!M48),"",Instructions!M48)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J41" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N48),"",Instructions!N48)</f>
-        <v/>
-      </c>
-      <c r="K41" t="str">
-        <f>IF(ISBLANK(Instructions!O48),"",Instructions!O48)</f>
-        <v/>
-      </c>
-      <c r="L41" t="str">
-        <f>IF(ISBLANK(Instructions!P48),"",Instructions!P48)</f>
-        <v/>
-      </c>
-      <c r="M41" t="str">
-        <f>Instructions!Q48</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="str">
-        <f>_xlfn.CONCAT(Instructions!C49,Instructions!D49,"D",TEXT(Instructions!B49,"YY"),TEXT(Instructions!B49,"MM"),"-",TEXT(Instructions!F49,"00"))</f>
-        <v>LXND2505-21</v>
-      </c>
-      <c r="B42" t="str" cm="1">
-        <f t="array" ref="B42">_xlfn.CONCAT(Instructions!C49,Instructions!A49,"_",TEXT(Instructions!B49,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C49)*(Table1[SectionName]=Instructions!D49)*(Table1[StationNumber]=Instructions!E49)*(Instructions!B49&gt;Table1[StartDate])*(Instructions!B49&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C42">
-        <f>Instructions!G49</f>
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <f>Instructions!H49</f>
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <f>Instructions!I49</f>
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <f>Instructions!J49</f>
-        <v>0</v>
-      </c>
-      <c r="G42" t="str">
-        <f>Instructions!K49</f>
-        <v>Entered</v>
-      </c>
-      <c r="H42" s="1">
-        <f>IF(ISBLANK(Instructions!L49),"",Instructions!L49)</f>
-        <v>45804</v>
-      </c>
-      <c r="I42" t="str">
-        <f>IF(ISBLANK(Instructions!M49),"",Instructions!M49)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J42" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N49),"",Instructions!N49)</f>
-        <v/>
-      </c>
-      <c r="K42" t="str">
-        <f>IF(ISBLANK(Instructions!O49),"",Instructions!O49)</f>
-        <v/>
-      </c>
-      <c r="L42" t="str">
-        <f>IF(ISBLANK(Instructions!P49),"",Instructions!P49)</f>
-        <v/>
-      </c>
-      <c r="M42" t="str">
-        <f>Instructions!Q49</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="str">
-        <f>_xlfn.CONCAT(Instructions!C50,Instructions!D50,"D",TEXT(Instructions!B50,"YY"),TEXT(Instructions!B50,"MM"),"-",TEXT(Instructions!F50,"00"))</f>
-        <v>LXND2505-22</v>
-      </c>
-      <c r="B43" t="str" cm="1">
-        <f t="array" ref="B43">_xlfn.CONCAT(Instructions!C50,Instructions!A50,"_",TEXT(Instructions!B50,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C50)*(Table1[SectionName]=Instructions!D50)*(Table1[StationNumber]=Instructions!E50)*(Instructions!B50&gt;Table1[StartDate])*(Instructions!B50&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C43">
-        <f>Instructions!G50</f>
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <f>Instructions!H50</f>
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <f>Instructions!I50</f>
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <f>Instructions!J50</f>
-        <v>0</v>
-      </c>
-      <c r="G43" t="str">
-        <f>Instructions!K50</f>
-        <v>Entered</v>
-      </c>
-      <c r="H43" s="1">
-        <f>IF(ISBLANK(Instructions!L50),"",Instructions!L50)</f>
-        <v>45804</v>
-      </c>
-      <c r="I43" t="str">
-        <f>IF(ISBLANK(Instructions!M50),"",Instructions!M50)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J43" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N50),"",Instructions!N50)</f>
-        <v/>
-      </c>
-      <c r="K43" t="str">
-        <f>IF(ISBLANK(Instructions!O50),"",Instructions!O50)</f>
-        <v/>
-      </c>
-      <c r="L43" t="str">
-        <f>IF(ISBLANK(Instructions!P50),"",Instructions!P50)</f>
-        <v/>
-      </c>
-      <c r="M43" t="str">
-        <f>Instructions!Q50</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="str">
-        <f>_xlfn.CONCAT(Instructions!C51,Instructions!D51,"D",TEXT(Instructions!B51,"YY"),TEXT(Instructions!B51,"MM"),"-",TEXT(Instructions!F51,"00"))</f>
-        <v>LXND2505-23</v>
-      </c>
-      <c r="B44" t="str" cm="1">
-        <f t="array" ref="B44">_xlfn.CONCAT(Instructions!C51,Instructions!A51,"_",TEXT(Instructions!B51,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C51)*(Table1[SectionName]=Instructions!D51)*(Table1[StationNumber]=Instructions!E51)*(Instructions!B51&gt;Table1[StartDate])*(Instructions!B51&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C44">
-        <f>Instructions!G51</f>
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <f>Instructions!H51</f>
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <f>Instructions!I51</f>
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <f>Instructions!J51</f>
-        <v>0</v>
-      </c>
-      <c r="G44" t="str">
-        <f>Instructions!K51</f>
-        <v>Entered</v>
-      </c>
-      <c r="H44" s="1">
-        <f>IF(ISBLANK(Instructions!L51),"",Instructions!L51)</f>
-        <v>45804</v>
-      </c>
-      <c r="I44" t="str">
-        <f>IF(ISBLANK(Instructions!M51),"",Instructions!M51)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J44" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N51),"",Instructions!N51)</f>
-        <v/>
-      </c>
-      <c r="K44" t="str">
-        <f>IF(ISBLANK(Instructions!O51),"",Instructions!O51)</f>
-        <v/>
-      </c>
-      <c r="L44" t="str">
-        <f>IF(ISBLANK(Instructions!P51),"",Instructions!P51)</f>
-        <v/>
-      </c>
-      <c r="M44" t="str">
-        <f>Instructions!Q51</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="str">
-        <f>_xlfn.CONCAT(Instructions!C52,Instructions!D52,"D",TEXT(Instructions!B52,"YY"),TEXT(Instructions!B52,"MM"),"-",TEXT(Instructions!F52,"00"))</f>
-        <v>LXND2505-24</v>
-      </c>
-      <c r="B45" t="str" cm="1">
-        <f t="array" ref="B45">_xlfn.CONCAT(Instructions!C52,Instructions!A52,"_",TEXT(Instructions!B52,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C52)*(Table1[SectionName]=Instructions!D52)*(Table1[StationNumber]=Instructions!E52)*(Instructions!B52&gt;Table1[StartDate])*(Instructions!B52&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C45">
-        <f>Instructions!G52</f>
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <f>Instructions!H52</f>
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <f>Instructions!I52</f>
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <f>Instructions!J52</f>
-        <v>0</v>
-      </c>
-      <c r="G45" t="str">
-        <f>Instructions!K52</f>
-        <v>Entered</v>
-      </c>
-      <c r="H45" s="1">
-        <f>IF(ISBLANK(Instructions!L52),"",Instructions!L52)</f>
-        <v>45804</v>
-      </c>
-      <c r="I45" t="str">
-        <f>IF(ISBLANK(Instructions!M52),"",Instructions!M52)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J45" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N52),"",Instructions!N52)</f>
-        <v/>
-      </c>
-      <c r="K45" t="str">
-        <f>IF(ISBLANK(Instructions!O52),"",Instructions!O52)</f>
-        <v/>
-      </c>
-      <c r="L45" t="str">
-        <f>IF(ISBLANK(Instructions!P52),"",Instructions!P52)</f>
-        <v/>
-      </c>
-      <c r="M45" t="str">
-        <f>Instructions!Q52</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="str">
-        <f>_xlfn.CONCAT(Instructions!C53,Instructions!D53,"D",TEXT(Instructions!B53,"YY"),TEXT(Instructions!B53,"MM"),"-",TEXT(Instructions!F53,"00"))</f>
-        <v>LXND2505-25</v>
-      </c>
-      <c r="B46" t="str" cm="1">
-        <f t="array" ref="B46">_xlfn.CONCAT(Instructions!C53,Instructions!A53,"_",TEXT(Instructions!B53,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C53)*(Table1[SectionName]=Instructions!D53)*(Table1[StationNumber]=Instructions!E53)*(Instructions!B53&gt;Table1[StartDate])*(Instructions!B53&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C46">
-        <f>Instructions!G53</f>
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <f>Instructions!H53</f>
-        <v>0</v>
-      </c>
-      <c r="E46">
-        <f>Instructions!I53</f>
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <f>Instructions!J53</f>
-        <v>0</v>
-      </c>
-      <c r="G46" t="str">
-        <f>Instructions!K53</f>
-        <v>Entered</v>
-      </c>
-      <c r="H46" s="1">
-        <f>IF(ISBLANK(Instructions!L53),"",Instructions!L53)</f>
-        <v>45804</v>
-      </c>
-      <c r="I46" t="str">
-        <f>IF(ISBLANK(Instructions!M53),"",Instructions!M53)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J46" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N53),"",Instructions!N53)</f>
-        <v/>
-      </c>
-      <c r="K46" t="str">
-        <f>IF(ISBLANK(Instructions!O53),"",Instructions!O53)</f>
-        <v/>
-      </c>
-      <c r="L46" t="str">
-        <f>IF(ISBLANK(Instructions!P53),"",Instructions!P53)</f>
-        <v/>
-      </c>
-      <c r="M46" t="str">
-        <f>Instructions!Q53</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="str">
-        <f>_xlfn.CONCAT(Instructions!C54,Instructions!D54,"D",TEXT(Instructions!B54,"YY"),TEXT(Instructions!B54,"MM"),"-",TEXT(Instructions!F54,"00"))</f>
-        <v>LXND2505-26</v>
-      </c>
-      <c r="B47" t="str" cm="1">
-        <f t="array" ref="B47">_xlfn.CONCAT(Instructions!C54,Instructions!A54,"_",TEXT(Instructions!B54,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C54)*(Table1[SectionName]=Instructions!D54)*(Table1[StationNumber]=Instructions!E54)*(Instructions!B54&gt;Table1[StartDate])*(Instructions!B54&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C47">
-        <f>Instructions!G54</f>
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <f>Instructions!H54</f>
-        <v>0</v>
-      </c>
-      <c r="E47">
-        <f>Instructions!I54</f>
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <f>Instructions!J54</f>
-        <v>0</v>
-      </c>
-      <c r="G47" t="str">
-        <f>Instructions!K54</f>
-        <v>Entered</v>
-      </c>
-      <c r="H47" s="1">
-        <f>IF(ISBLANK(Instructions!L54),"",Instructions!L54)</f>
-        <v>45804</v>
-      </c>
-      <c r="I47" t="str">
-        <f>IF(ISBLANK(Instructions!M54),"",Instructions!M54)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J47" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N54),"",Instructions!N54)</f>
-        <v/>
-      </c>
-      <c r="K47" t="str">
-        <f>IF(ISBLANK(Instructions!O54),"",Instructions!O54)</f>
-        <v/>
-      </c>
-      <c r="L47" t="str">
-        <f>IF(ISBLANK(Instructions!P54),"",Instructions!P54)</f>
-        <v/>
-      </c>
-      <c r="M47" t="str">
-        <f>Instructions!Q54</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="str">
-        <f>_xlfn.CONCAT(Instructions!C55,Instructions!D55,"D",TEXT(Instructions!B55,"YY"),TEXT(Instructions!B55,"MM"),"-",TEXT(Instructions!F55,"00"))</f>
-        <v>LXND2505-27</v>
-      </c>
-      <c r="B48" t="str" cm="1">
-        <f t="array" ref="B48">_xlfn.CONCAT(Instructions!C55,Instructions!A55,"_",TEXT(Instructions!B55,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C55)*(Table1[SectionName]=Instructions!D55)*(Table1[StationNumber]=Instructions!E55)*(Instructions!B55&gt;Table1[StartDate])*(Instructions!B55&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0242_1</v>
-      </c>
-      <c r="C48">
-        <f>Instructions!G55</f>
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <f>Instructions!H55</f>
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <f>Instructions!I55</f>
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <f>Instructions!J55</f>
-        <v>0</v>
-      </c>
-      <c r="G48" t="str">
-        <f>Instructions!K55</f>
-        <v>Entered</v>
-      </c>
-      <c r="H48" s="1">
-        <f>IF(ISBLANK(Instructions!L55),"",Instructions!L55)</f>
-        <v>45804</v>
-      </c>
-      <c r="I48" t="str">
-        <f>IF(ISBLANK(Instructions!M55),"",Instructions!M55)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J48" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N55),"",Instructions!N55)</f>
-        <v/>
-      </c>
-      <c r="K48" t="str">
-        <f>IF(ISBLANK(Instructions!O55),"",Instructions!O55)</f>
-        <v/>
-      </c>
-      <c r="L48" t="str">
-        <f>IF(ISBLANK(Instructions!P55),"",Instructions!P55)</f>
-        <v/>
-      </c>
-      <c r="M48" t="str">
-        <f>Instructions!Q55</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="str">
-        <f>_xlfn.CONCAT(Instructions!C56,Instructions!D56,"D",TEXT(Instructions!B56,"YY"),TEXT(Instructions!B56,"MM"),"-",TEXT(Instructions!F56,"00"))</f>
-        <v>LXND2505-28</v>
-      </c>
-      <c r="B49" t="str" cm="1">
-        <f t="array" ref="B49">_xlfn.CONCAT(Instructions!C56,Instructions!A56,"_",TEXT(Instructions!B56,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C56)*(Table1[SectionName]=Instructions!D56)*(Table1[StationNumber]=Instructions!E56)*(Instructions!B56&gt;Table1[StartDate])*(Instructions!B56&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C49">
-        <f>Instructions!G56</f>
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <f>Instructions!H56</f>
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <f>Instructions!I56</f>
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <f>Instructions!J56</f>
-        <v>0</v>
-      </c>
-      <c r="G49" t="str">
-        <f>Instructions!K56</f>
-        <v>Entered</v>
-      </c>
-      <c r="H49" s="1">
-        <f>IF(ISBLANK(Instructions!L56),"",Instructions!L56)</f>
-        <v>45804</v>
-      </c>
-      <c r="I49" t="str">
-        <f>IF(ISBLANK(Instructions!M56),"",Instructions!M56)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J49" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N56),"",Instructions!N56)</f>
-        <v/>
-      </c>
-      <c r="K49" t="str">
-        <f>IF(ISBLANK(Instructions!O56),"",Instructions!O56)</f>
-        <v/>
-      </c>
-      <c r="L49" t="str">
-        <f>IF(ISBLANK(Instructions!P56),"",Instructions!P56)</f>
-        <v/>
-      </c>
-      <c r="M49" t="str">
-        <f>Instructions!Q56</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="str">
-        <f>_xlfn.CONCAT(Instructions!C57,Instructions!D57,"D",TEXT(Instructions!B57,"YY"),TEXT(Instructions!B57,"MM"),"-",TEXT(Instructions!F57,"00"))</f>
-        <v>LXND2505-29</v>
-      </c>
-      <c r="B50" t="str" cm="1">
-        <f t="array" ref="B50">_xlfn.CONCAT(Instructions!C57,Instructions!A57,"_",TEXT(Instructions!B57,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C57)*(Table1[SectionName]=Instructions!D57)*(Table1[StationNumber]=Instructions!E57)*(Instructions!B57&gt;Table1[StartDate])*(Instructions!B57&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C50">
-        <f>Instructions!G57</f>
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <f>Instructions!H57</f>
-        <v>0</v>
-      </c>
-      <c r="E50">
-        <f>Instructions!I57</f>
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <f>Instructions!J57</f>
-        <v>0</v>
-      </c>
-      <c r="G50" t="str">
-        <f>Instructions!K57</f>
-        <v>Entered</v>
-      </c>
-      <c r="H50" s="1">
-        <f>IF(ISBLANK(Instructions!L57),"",Instructions!L57)</f>
-        <v>45804</v>
-      </c>
-      <c r="I50" t="str">
-        <f>IF(ISBLANK(Instructions!M57),"",Instructions!M57)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J50" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N57),"",Instructions!N57)</f>
-        <v/>
-      </c>
-      <c r="K50" t="str">
-        <f>IF(ISBLANK(Instructions!O57),"",Instructions!O57)</f>
-        <v/>
-      </c>
-      <c r="L50" t="str">
-        <f>IF(ISBLANK(Instructions!P57),"",Instructions!P57)</f>
-        <v/>
-      </c>
-      <c r="M50" t="str">
-        <f>Instructions!Q57</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="str">
-        <f>_xlfn.CONCAT(Instructions!C58,Instructions!D58,"D",TEXT(Instructions!B58,"YY"),TEXT(Instructions!B58,"MM"),"-",TEXT(Instructions!F58,"00"))</f>
-        <v>LXND2505-30</v>
-      </c>
-      <c r="B51" t="str" cm="1">
-        <f t="array" ref="B51">_xlfn.CONCAT(Instructions!C58,Instructions!A58,"_",TEXT(Instructions!B58,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C58)*(Table1[SectionName]=Instructions!D58)*(Table1[StationNumber]=Instructions!E58)*(Instructions!B58&gt;Table1[StartDate])*(Instructions!B58&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C51">
-        <f>Instructions!G58</f>
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <f>Instructions!H58</f>
-        <v>0</v>
-      </c>
-      <c r="E51">
-        <f>Instructions!I58</f>
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <f>Instructions!J58</f>
-        <v>0</v>
-      </c>
-      <c r="G51" t="str">
-        <f>Instructions!K58</f>
-        <v>Entered</v>
-      </c>
-      <c r="H51" s="1">
-        <f>IF(ISBLANK(Instructions!L58),"",Instructions!L58)</f>
-        <v>45804</v>
-      </c>
-      <c r="I51" t="str">
-        <f>IF(ISBLANK(Instructions!M58),"",Instructions!M58)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J51" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N58),"",Instructions!N58)</f>
-        <v/>
-      </c>
-      <c r="K51" t="str">
-        <f>IF(ISBLANK(Instructions!O58),"",Instructions!O58)</f>
-        <v/>
-      </c>
-      <c r="L51" t="str">
-        <f>IF(ISBLANK(Instructions!P58),"",Instructions!P58)</f>
-        <v/>
-      </c>
-      <c r="M51" t="str">
-        <f>Instructions!Q58</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="str">
-        <f>_xlfn.CONCAT(Instructions!C59,Instructions!D59,"D",TEXT(Instructions!B59,"YY"),TEXT(Instructions!B59,"MM"),"-",TEXT(Instructions!F59,"00"))</f>
-        <v>LXND2505-31</v>
-      </c>
-      <c r="B52" t="str" cm="1">
-        <f t="array" ref="B52">_xlfn.CONCAT(Instructions!C59,Instructions!A59,"_",TEXT(Instructions!B59,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C59)*(Table1[SectionName]=Instructions!D59)*(Table1[StationNumber]=Instructions!E59)*(Instructions!B59&gt;Table1[StartDate])*(Instructions!B59&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C52">
-        <f>Instructions!G59</f>
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <f>Instructions!H59</f>
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <f>Instructions!I59</f>
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <f>Instructions!J59</f>
-        <v>0</v>
-      </c>
-      <c r="G52" t="str">
-        <f>Instructions!K59</f>
-        <v>Entered</v>
-      </c>
-      <c r="H52" s="1">
-        <f>IF(ISBLANK(Instructions!L59),"",Instructions!L59)</f>
-        <v>45804</v>
-      </c>
-      <c r="I52" t="str">
-        <f>IF(ISBLANK(Instructions!M59),"",Instructions!M59)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J52" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N59),"",Instructions!N59)</f>
-        <v/>
-      </c>
-      <c r="K52" t="str">
-        <f>IF(ISBLANK(Instructions!O59),"",Instructions!O59)</f>
-        <v/>
-      </c>
-      <c r="L52" t="str">
-        <f>IF(ISBLANK(Instructions!P59),"",Instructions!P59)</f>
-        <v/>
-      </c>
-      <c r="M52" t="str">
-        <f>Instructions!Q59</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="str">
-        <f>_xlfn.CONCAT(Instructions!C60,Instructions!D60,"D",TEXT(Instructions!B60,"YY"),TEXT(Instructions!B60,"MM"),"-",TEXT(Instructions!F60,"00"))</f>
-        <v>LXND2505-32</v>
-      </c>
-      <c r="B53" t="str" cm="1">
-        <f t="array" ref="B53">_xlfn.CONCAT(Instructions!C60,Instructions!A60,"_",TEXT(Instructions!B60,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C60)*(Table1[SectionName]=Instructions!D60)*(Table1[StationNumber]=Instructions!E60)*(Instructions!B60&gt;Table1[StartDate])*(Instructions!B60&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C53">
-        <f>Instructions!G60</f>
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <f>Instructions!H60</f>
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <f>Instructions!I60</f>
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <f>Instructions!J60</f>
-        <v>0</v>
-      </c>
-      <c r="G53" t="str">
-        <f>Instructions!K60</f>
-        <v>Entered</v>
-      </c>
-      <c r="H53" s="1">
-        <f>IF(ISBLANK(Instructions!L60),"",Instructions!L60)</f>
-        <v>45804</v>
-      </c>
-      <c r="I53" t="str">
-        <f>IF(ISBLANK(Instructions!M60),"",Instructions!M60)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J53" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N60),"",Instructions!N60)</f>
-        <v/>
-      </c>
-      <c r="K53" t="str">
-        <f>IF(ISBLANK(Instructions!O60),"",Instructions!O60)</f>
-        <v/>
-      </c>
-      <c r="L53" t="str">
-        <f>IF(ISBLANK(Instructions!P60),"",Instructions!P60)</f>
-        <v/>
-      </c>
-      <c r="M53" t="str">
-        <f>Instructions!Q60</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="str">
-        <f>_xlfn.CONCAT(Instructions!C61,Instructions!D61,"D",TEXT(Instructions!B61,"YY"),TEXT(Instructions!B61,"MM"),"-",TEXT(Instructions!F61,"00"))</f>
-        <v>LXND2505-33</v>
-      </c>
-      <c r="B54" t="str" cm="1">
-        <f t="array" ref="B54">_xlfn.CONCAT(Instructions!C61,Instructions!A61,"_",TEXT(Instructions!B61,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C61)*(Table1[SectionName]=Instructions!D61)*(Table1[StationNumber]=Instructions!E61)*(Instructions!B61&gt;Table1[StartDate])*(Instructions!B61&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C54">
-        <f>Instructions!G61</f>
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <f>Instructions!H61</f>
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <f>Instructions!I61</f>
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <f>Instructions!J61</f>
-        <v>0</v>
-      </c>
-      <c r="G54" t="str">
-        <f>Instructions!K61</f>
-        <v>Entered</v>
-      </c>
-      <c r="H54" s="1">
-        <f>IF(ISBLANK(Instructions!L61),"",Instructions!L61)</f>
-        <v>45804</v>
-      </c>
-      <c r="I54" t="str">
-        <f>IF(ISBLANK(Instructions!M61),"",Instructions!M61)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J54" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N61),"",Instructions!N61)</f>
-        <v/>
-      </c>
-      <c r="K54" t="str">
-        <f>IF(ISBLANK(Instructions!O61),"",Instructions!O61)</f>
-        <v/>
-      </c>
-      <c r="L54" t="str">
-        <f>IF(ISBLANK(Instructions!P61),"",Instructions!P61)</f>
-        <v/>
-      </c>
-      <c r="M54" t="str">
-        <f>Instructions!Q61</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="str">
-        <f>_xlfn.CONCAT(Instructions!C62,Instructions!D62,"D",TEXT(Instructions!B62,"YY"),TEXT(Instructions!B62,"MM"),"-",TEXT(Instructions!F62,"00"))</f>
-        <v>LXND2505-34</v>
-      </c>
-      <c r="B55" t="str" cm="1">
-        <f t="array" ref="B55">_xlfn.CONCAT(Instructions!C62,Instructions!A62,"_",TEXT(Instructions!B62,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C62)*(Table1[SectionName]=Instructions!D62)*(Table1[StationNumber]=Instructions!E62)*(Instructions!B62&gt;Table1[StartDate])*(Instructions!B62&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C55">
-        <f>Instructions!G62</f>
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <f>Instructions!H62</f>
-        <v>0</v>
-      </c>
-      <c r="E55">
-        <f>Instructions!I62</f>
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <f>Instructions!J62</f>
-        <v>0</v>
-      </c>
-      <c r="G55" t="str">
-        <f>Instructions!K62</f>
-        <v>Entered</v>
-      </c>
-      <c r="H55" s="1">
-        <f>IF(ISBLANK(Instructions!L62),"",Instructions!L62)</f>
-        <v>45804</v>
-      </c>
-      <c r="I55" t="str">
-        <f>IF(ISBLANK(Instructions!M62),"",Instructions!M62)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J55" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N62),"",Instructions!N62)</f>
-        <v/>
-      </c>
-      <c r="K55" t="str">
-        <f>IF(ISBLANK(Instructions!O62),"",Instructions!O62)</f>
-        <v/>
-      </c>
-      <c r="L55" t="str">
-        <f>IF(ISBLANK(Instructions!P62),"",Instructions!P62)</f>
-        <v/>
-      </c>
-      <c r="M55" t="str">
-        <f>Instructions!Q62</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="str">
-        <f>_xlfn.CONCAT(Instructions!C63,Instructions!D63,"D",TEXT(Instructions!B63,"YY"),TEXT(Instructions!B63,"MM"),"-",TEXT(Instructions!F63,"00"))</f>
-        <v>LXND2505-35</v>
-      </c>
-      <c r="B56" t="str" cm="1">
-        <f t="array" ref="B56">_xlfn.CONCAT(Instructions!C63,Instructions!A63,"_",TEXT(Instructions!B63,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C63)*(Table1[SectionName]=Instructions!D63)*(Table1[StationNumber]=Instructions!E63)*(Instructions!B63&gt;Table1[StartDate])*(Instructions!B63&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C56">
-        <f>Instructions!G63</f>
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <f>Instructions!H63</f>
-        <v>0</v>
-      </c>
-      <c r="E56">
-        <f>Instructions!I63</f>
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <f>Instructions!J63</f>
-        <v>0</v>
-      </c>
-      <c r="G56" t="str">
-        <f>Instructions!K63</f>
-        <v>Entered</v>
-      </c>
-      <c r="H56" s="1">
-        <f>IF(ISBLANK(Instructions!L63),"",Instructions!L63)</f>
-        <v>45804</v>
-      </c>
-      <c r="I56" t="str">
-        <f>IF(ISBLANK(Instructions!M63),"",Instructions!M63)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J56" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N63),"",Instructions!N63)</f>
-        <v/>
-      </c>
-      <c r="K56" t="str">
-        <f>IF(ISBLANK(Instructions!O63),"",Instructions!O63)</f>
-        <v/>
-      </c>
-      <c r="L56" t="str">
-        <f>IF(ISBLANK(Instructions!P63),"",Instructions!P63)</f>
-        <v/>
-      </c>
-      <c r="M56" t="str">
-        <f>Instructions!Q63</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="str">
-        <f>_xlfn.CONCAT(Instructions!C64,Instructions!D64,"D",TEXT(Instructions!B64,"YY"),TEXT(Instructions!B64,"MM"),"-",TEXT(Instructions!F64,"00"))</f>
-        <v>LXND2505-36</v>
-      </c>
-      <c r="B57" t="str" cm="1">
-        <f t="array" ref="B57">_xlfn.CONCAT(Instructions!C64,Instructions!A64,"_",TEXT(Instructions!B64,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C64)*(Table1[SectionName]=Instructions!D64)*(Table1[StationNumber]=Instructions!E64)*(Instructions!B64&gt;Table1[StartDate])*(Instructions!B64&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C57">
-        <f>Instructions!G64</f>
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <f>Instructions!H64</f>
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <f>Instructions!I64</f>
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <f>Instructions!J64</f>
-        <v>0</v>
-      </c>
-      <c r="G57" t="str">
-        <f>Instructions!K64</f>
-        <v>Entered</v>
-      </c>
-      <c r="H57" s="1">
-        <f>IF(ISBLANK(Instructions!L64),"",Instructions!L64)</f>
-        <v>45804</v>
-      </c>
-      <c r="I57" t="str">
-        <f>IF(ISBLANK(Instructions!M64),"",Instructions!M64)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J57" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N64),"",Instructions!N64)</f>
-        <v/>
-      </c>
-      <c r="K57" t="str">
-        <f>IF(ISBLANK(Instructions!O64),"",Instructions!O64)</f>
-        <v/>
-      </c>
-      <c r="L57" t="str">
-        <f>IF(ISBLANK(Instructions!P64),"",Instructions!P64)</f>
-        <v/>
-      </c>
-      <c r="M57" t="str">
-        <f>Instructions!Q64</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="str">
-        <f>_xlfn.CONCAT(Instructions!C65,Instructions!D65,"D",TEXT(Instructions!B65,"YY"),TEXT(Instructions!B65,"MM"),"-",TEXT(Instructions!F65,"00"))</f>
-        <v>LXND2505-37</v>
-      </c>
-      <c r="B58" t="str" cm="1">
-        <f t="array" ref="B58">_xlfn.CONCAT(Instructions!C65,Instructions!A65,"_",TEXT(Instructions!B65,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C65)*(Table1[SectionName]=Instructions!D65)*(Table1[StationNumber]=Instructions!E65)*(Instructions!B65&gt;Table1[StartDate])*(Instructions!B65&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C58">
-        <f>Instructions!G65</f>
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <f>Instructions!H65</f>
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <f>Instructions!I65</f>
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <f>Instructions!J65</f>
-        <v>0</v>
-      </c>
-      <c r="G58" t="str">
-        <f>Instructions!K65</f>
-        <v>Entered</v>
-      </c>
-      <c r="H58" s="1">
-        <f>IF(ISBLANK(Instructions!L65),"",Instructions!L65)</f>
-        <v>45804</v>
-      </c>
-      <c r="I58" t="str">
-        <f>IF(ISBLANK(Instructions!M65),"",Instructions!M65)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J58" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N65),"",Instructions!N65)</f>
-        <v/>
-      </c>
-      <c r="K58" t="str">
-        <f>IF(ISBLANK(Instructions!O65),"",Instructions!O65)</f>
-        <v/>
-      </c>
-      <c r="L58" t="str">
-        <f>IF(ISBLANK(Instructions!P65),"",Instructions!P65)</f>
-        <v/>
-      </c>
-      <c r="M58" t="str">
-        <f>Instructions!Q65</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="str">
-        <f>_xlfn.CONCAT(Instructions!C66,Instructions!D66,"D",TEXT(Instructions!B66,"YY"),TEXT(Instructions!B66,"MM"),"-",TEXT(Instructions!F66,"00"))</f>
-        <v>LXND2505-38</v>
-      </c>
-      <c r="B59" t="str" cm="1">
-        <f t="array" ref="B59">_xlfn.CONCAT(Instructions!C66,Instructions!A66,"_",TEXT(Instructions!B66,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C66)*(Table1[SectionName]=Instructions!D66)*(Table1[StationNumber]=Instructions!E66)*(Instructions!B66&gt;Table1[StartDate])*(Instructions!B66&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C59">
-        <f>Instructions!G66</f>
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <f>Instructions!H66</f>
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <f>Instructions!I66</f>
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <f>Instructions!J66</f>
-        <v>0</v>
-      </c>
-      <c r="G59" t="str">
-        <f>Instructions!K66</f>
-        <v>Entered</v>
-      </c>
-      <c r="H59" s="1">
-        <f>IF(ISBLANK(Instructions!L66),"",Instructions!L66)</f>
-        <v>45804</v>
-      </c>
-      <c r="I59" t="str">
-        <f>IF(ISBLANK(Instructions!M66),"",Instructions!M66)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J59" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N66),"",Instructions!N66)</f>
-        <v/>
-      </c>
-      <c r="K59" t="str">
-        <f>IF(ISBLANK(Instructions!O66),"",Instructions!O66)</f>
-        <v/>
-      </c>
-      <c r="L59" t="str">
-        <f>IF(ISBLANK(Instructions!P66),"",Instructions!P66)</f>
-        <v/>
-      </c>
-      <c r="M59" t="str">
-        <f>Instructions!Q66</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="str">
-        <f>_xlfn.CONCAT(Instructions!C67,Instructions!D67,"D",TEXT(Instructions!B67,"YY"),TEXT(Instructions!B67,"MM"),"-",TEXT(Instructions!F67,"00"))</f>
-        <v>LXND2505-39</v>
-      </c>
-      <c r="B60" t="str" cm="1">
-        <f t="array" ref="B60">_xlfn.CONCAT(Instructions!C67,Instructions!A67,"_",TEXT(Instructions!B67,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C67)*(Table1[SectionName]=Instructions!D67)*(Table1[StationNumber]=Instructions!E67)*(Instructions!B67&gt;Table1[StartDate])*(Instructions!B67&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C60">
-        <f>Instructions!G67</f>
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <f>Instructions!H67</f>
-        <v>0</v>
-      </c>
-      <c r="E60">
-        <f>Instructions!I67</f>
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <f>Instructions!J67</f>
-        <v>0</v>
-      </c>
-      <c r="G60" t="str">
-        <f>Instructions!K67</f>
-        <v>Entered</v>
-      </c>
-      <c r="H60" s="1">
-        <f>IF(ISBLANK(Instructions!L67),"",Instructions!L67)</f>
-        <v>45804</v>
-      </c>
-      <c r="I60" t="str">
-        <f>IF(ISBLANK(Instructions!M67),"",Instructions!M67)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J60" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N67),"",Instructions!N67)</f>
-        <v/>
-      </c>
-      <c r="K60" t="str">
-        <f>IF(ISBLANK(Instructions!O67),"",Instructions!O67)</f>
-        <v/>
-      </c>
-      <c r="L60" t="str">
-        <f>IF(ISBLANK(Instructions!P67),"",Instructions!P67)</f>
-        <v/>
-      </c>
-      <c r="M60" t="str">
-        <f>Instructions!Q67</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="str">
-        <f>_xlfn.CONCAT(Instructions!C68,Instructions!D68,"D",TEXT(Instructions!B68,"YY"),TEXT(Instructions!B68,"MM"),"-",TEXT(Instructions!F68,"00"))</f>
-        <v>LXND2505-40</v>
-      </c>
-      <c r="B61" t="str" cm="1">
-        <f t="array" ref="B61">_xlfn.CONCAT(Instructions!C68,Instructions!A68,"_",TEXT(Instructions!B68,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C68)*(Table1[SectionName]=Instructions!D68)*(Table1[StationNumber]=Instructions!E68)*(Instructions!B68&gt;Table1[StartDate])*(Instructions!B68&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0243_1</v>
-      </c>
-      <c r="C61">
-        <f>Instructions!G68</f>
-        <v>0</v>
-      </c>
-      <c r="D61">
-        <f>Instructions!H68</f>
-        <v>0</v>
-      </c>
-      <c r="E61">
-        <f>Instructions!I68</f>
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <f>Instructions!J68</f>
-        <v>0</v>
-      </c>
-      <c r="G61" t="str">
-        <f>Instructions!K68</f>
-        <v>Entered</v>
-      </c>
-      <c r="H61" s="1">
-        <f>IF(ISBLANK(Instructions!L68),"",Instructions!L68)</f>
-        <v>45804</v>
-      </c>
-      <c r="I61" t="str">
-        <f>IF(ISBLANK(Instructions!M68),"",Instructions!M68)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J61" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N68),"",Instructions!N68)</f>
-        <v/>
-      </c>
-      <c r="K61" t="str">
-        <f>IF(ISBLANK(Instructions!O68),"",Instructions!O68)</f>
-        <v/>
-      </c>
-      <c r="L61" t="str">
-        <f>IF(ISBLANK(Instructions!P68),"",Instructions!P68)</f>
-        <v/>
-      </c>
-      <c r="M61" t="str">
-        <f>Instructions!Q68</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="str">
-        <f>_xlfn.CONCAT(Instructions!C69,Instructions!D69,"D",TEXT(Instructions!B69,"YY"),TEXT(Instructions!B69,"MM"),"-",TEXT(Instructions!F69,"00"))</f>
-        <v>LXND2505-41</v>
-      </c>
-      <c r="B62" t="str" cm="1">
-        <f t="array" ref="B62">_xlfn.CONCAT(Instructions!C69,Instructions!A69,"_",TEXT(Instructions!B69,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C69)*(Table1[SectionName]=Instructions!D69)*(Table1[StationNumber]=Instructions!E69)*(Instructions!B69&gt;Table1[StartDate])*(Instructions!B69&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C62">
-        <f>Instructions!G69</f>
-        <v>0</v>
-      </c>
-      <c r="D62">
-        <f>Instructions!H69</f>
-        <v>0</v>
-      </c>
-      <c r="E62">
-        <f>Instructions!I69</f>
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <f>Instructions!J69</f>
-        <v>0</v>
-      </c>
-      <c r="G62" t="str">
-        <f>Instructions!K69</f>
-        <v>Entered</v>
-      </c>
-      <c r="H62" s="1">
-        <f>IF(ISBLANK(Instructions!L69),"",Instructions!L69)</f>
-        <v>45804</v>
-      </c>
-      <c r="I62" t="str">
-        <f>IF(ISBLANK(Instructions!M69),"",Instructions!M69)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J62" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N69),"",Instructions!N69)</f>
-        <v/>
-      </c>
-      <c r="K62" t="str">
-        <f>IF(ISBLANK(Instructions!O69),"",Instructions!O69)</f>
-        <v/>
-      </c>
-      <c r="L62" t="str">
-        <f>IF(ISBLANK(Instructions!P69),"",Instructions!P69)</f>
-        <v/>
-      </c>
-      <c r="M62" t="str">
-        <f>Instructions!Q69</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="str">
-        <f>_xlfn.CONCAT(Instructions!C70,Instructions!D70,"D",TEXT(Instructions!B70,"YY"),TEXT(Instructions!B70,"MM"),"-",TEXT(Instructions!F70,"00"))</f>
-        <v>LXND2505-42</v>
-      </c>
-      <c r="B63" t="str" cm="1">
-        <f t="array" ref="B63">_xlfn.CONCAT(Instructions!C70,Instructions!A70,"_",TEXT(Instructions!B70,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C70)*(Table1[SectionName]=Instructions!D70)*(Table1[StationNumber]=Instructions!E70)*(Instructions!B70&gt;Table1[StartDate])*(Instructions!B70&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C63">
-        <f>Instructions!G70</f>
-        <v>0</v>
-      </c>
-      <c r="D63">
-        <f>Instructions!H70</f>
-        <v>0</v>
-      </c>
-      <c r="E63">
-        <f>Instructions!I70</f>
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <f>Instructions!J70</f>
-        <v>0</v>
-      </c>
-      <c r="G63" t="str">
-        <f>Instructions!K70</f>
-        <v>Entered</v>
-      </c>
-      <c r="H63" s="1">
-        <f>IF(ISBLANK(Instructions!L70),"",Instructions!L70)</f>
-        <v>45804</v>
-      </c>
-      <c r="I63" t="str">
-        <f>IF(ISBLANK(Instructions!M70),"",Instructions!M70)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J63" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N70),"",Instructions!N70)</f>
-        <v/>
-      </c>
-      <c r="K63" t="str">
-        <f>IF(ISBLANK(Instructions!O70),"",Instructions!O70)</f>
-        <v/>
-      </c>
-      <c r="L63" t="str">
-        <f>IF(ISBLANK(Instructions!P70),"",Instructions!P70)</f>
-        <v/>
-      </c>
-      <c r="M63" t="str">
-        <f>Instructions!Q70</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="str">
-        <f>_xlfn.CONCAT(Instructions!C71,Instructions!D71,"D",TEXT(Instructions!B71,"YY"),TEXT(Instructions!B71,"MM"),"-",TEXT(Instructions!F71,"00"))</f>
-        <v>LXND2505-43</v>
-      </c>
-      <c r="B64" t="str" cm="1">
-        <f t="array" ref="B64">_xlfn.CONCAT(Instructions!C71,Instructions!A71,"_",TEXT(Instructions!B71,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C71)*(Table1[SectionName]=Instructions!D71)*(Table1[StationNumber]=Instructions!E71)*(Instructions!B71&gt;Table1[StartDate])*(Instructions!B71&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C64">
-        <f>Instructions!G71</f>
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <f>Instructions!H71</f>
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <f>Instructions!I71</f>
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <f>Instructions!J71</f>
-        <v>0</v>
-      </c>
-      <c r="G64" t="str">
-        <f>Instructions!K71</f>
-        <v>Entered</v>
-      </c>
-      <c r="H64" s="1">
-        <f>IF(ISBLANK(Instructions!L71),"",Instructions!L71)</f>
-        <v>45804</v>
-      </c>
-      <c r="I64" t="str">
-        <f>IF(ISBLANK(Instructions!M71),"",Instructions!M71)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J64" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N71),"",Instructions!N71)</f>
-        <v/>
-      </c>
-      <c r="K64" t="str">
-        <f>IF(ISBLANK(Instructions!O71),"",Instructions!O71)</f>
-        <v/>
-      </c>
-      <c r="L64" t="str">
-        <f>IF(ISBLANK(Instructions!P71),"",Instructions!P71)</f>
-        <v/>
-      </c>
-      <c r="M64" t="str">
-        <f>Instructions!Q71</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="str">
-        <f>_xlfn.CONCAT(Instructions!C72,Instructions!D72,"D",TEXT(Instructions!B72,"YY"),TEXT(Instructions!B72,"MM"),"-",TEXT(Instructions!F72,"00"))</f>
-        <v>LXND2505-44</v>
-      </c>
-      <c r="B65" t="str" cm="1">
-        <f t="array" ref="B65">_xlfn.CONCAT(Instructions!C72,Instructions!A72,"_",TEXT(Instructions!B72,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C72)*(Table1[SectionName]=Instructions!D72)*(Table1[StationNumber]=Instructions!E72)*(Instructions!B72&gt;Table1[StartDate])*(Instructions!B72&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C65">
-        <f>Instructions!G72</f>
-        <v>0</v>
-      </c>
-      <c r="D65">
-        <f>Instructions!H72</f>
-        <v>0</v>
-      </c>
-      <c r="E65">
-        <f>Instructions!I72</f>
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <f>Instructions!J72</f>
-        <v>0</v>
-      </c>
-      <c r="G65" t="str">
-        <f>Instructions!K72</f>
-        <v>Entered</v>
-      </c>
-      <c r="H65" s="1">
-        <f>IF(ISBLANK(Instructions!L72),"",Instructions!L72)</f>
-        <v>45804</v>
-      </c>
-      <c r="I65" t="str">
-        <f>IF(ISBLANK(Instructions!M72),"",Instructions!M72)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J65" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N72),"",Instructions!N72)</f>
-        <v/>
-      </c>
-      <c r="K65" t="str">
-        <f>IF(ISBLANK(Instructions!O72),"",Instructions!O72)</f>
-        <v/>
-      </c>
-      <c r="L65" t="str">
-        <f>IF(ISBLANK(Instructions!P72),"",Instructions!P72)</f>
-        <v/>
-      </c>
-      <c r="M65" t="str">
-        <f>Instructions!Q72</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="str">
-        <f>_xlfn.CONCAT(Instructions!C73,Instructions!D73,"D",TEXT(Instructions!B73,"YY"),TEXT(Instructions!B73,"MM"),"-",TEXT(Instructions!F73,"00"))</f>
-        <v>LXND2505-45</v>
-      </c>
-      <c r="B66" t="str" cm="1">
-        <f t="array" ref="B66">_xlfn.CONCAT(Instructions!C73,Instructions!A73,"_",TEXT(Instructions!B73,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C73)*(Table1[SectionName]=Instructions!D73)*(Table1[StationNumber]=Instructions!E73)*(Instructions!B73&gt;Table1[StartDate])*(Instructions!B73&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C66">
-        <f>Instructions!G73</f>
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <f>Instructions!H73</f>
-        <v>0</v>
-      </c>
-      <c r="E66">
-        <f>Instructions!I73</f>
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <f>Instructions!J73</f>
-        <v>0</v>
-      </c>
-      <c r="G66" t="str">
-        <f>Instructions!K73</f>
-        <v>Entered</v>
-      </c>
-      <c r="H66" s="1">
-        <f>IF(ISBLANK(Instructions!L73),"",Instructions!L73)</f>
-        <v>45804</v>
-      </c>
-      <c r="I66" t="str">
-        <f>IF(ISBLANK(Instructions!M73),"",Instructions!M73)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J66" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N73),"",Instructions!N73)</f>
-        <v/>
-      </c>
-      <c r="K66" t="str">
-        <f>IF(ISBLANK(Instructions!O73),"",Instructions!O73)</f>
-        <v/>
-      </c>
-      <c r="L66" t="str">
-        <f>IF(ISBLANK(Instructions!P73),"",Instructions!P73)</f>
-        <v/>
-      </c>
-      <c r="M66" t="str">
-        <f>Instructions!Q73</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="str">
-        <f>_xlfn.CONCAT(Instructions!C74,Instructions!D74,"D",TEXT(Instructions!B74,"YY"),TEXT(Instructions!B74,"MM"),"-",TEXT(Instructions!F74,"00"))</f>
-        <v>LXND2505-46</v>
-      </c>
-      <c r="B67" t="str" cm="1">
-        <f t="array" ref="B67">_xlfn.CONCAT(Instructions!C74,Instructions!A74,"_",TEXT(Instructions!B74,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C74)*(Table1[SectionName]=Instructions!D74)*(Table1[StationNumber]=Instructions!E74)*(Instructions!B74&gt;Table1[StartDate])*(Instructions!B74&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C67">
-        <f>Instructions!G74</f>
-        <v>0</v>
-      </c>
-      <c r="D67">
-        <f>Instructions!H74</f>
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <f>Instructions!I74</f>
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <f>Instructions!J74</f>
-        <v>0</v>
-      </c>
-      <c r="G67" t="str">
-        <f>Instructions!K74</f>
-        <v>Entered</v>
-      </c>
-      <c r="H67" s="1">
-        <f>IF(ISBLANK(Instructions!L74),"",Instructions!L74)</f>
-        <v>45804</v>
-      </c>
-      <c r="I67" t="str">
-        <f>IF(ISBLANK(Instructions!M74),"",Instructions!M74)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J67" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N74),"",Instructions!N74)</f>
-        <v/>
-      </c>
-      <c r="K67" t="str">
-        <f>IF(ISBLANK(Instructions!O74),"",Instructions!O74)</f>
-        <v/>
-      </c>
-      <c r="L67" t="str">
-        <f>IF(ISBLANK(Instructions!P74),"",Instructions!P74)</f>
-        <v/>
-      </c>
-      <c r="M67" t="str">
-        <f>Instructions!Q74</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="str">
-        <f>_xlfn.CONCAT(Instructions!C75,Instructions!D75,"D",TEXT(Instructions!B75,"YY"),TEXT(Instructions!B75,"MM"),"-",TEXT(Instructions!F75,"00"))</f>
-        <v>LXND2505-47</v>
-      </c>
-      <c r="B68" t="str" cm="1">
-        <f t="array" ref="B68">_xlfn.CONCAT(Instructions!C75,Instructions!A75,"_",TEXT(Instructions!B75,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C75)*(Table1[SectionName]=Instructions!D75)*(Table1[StationNumber]=Instructions!E75)*(Instructions!B75&gt;Table1[StartDate])*(Instructions!B75&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C68">
-        <f>Instructions!G75</f>
-        <v>0</v>
-      </c>
-      <c r="D68">
-        <f>Instructions!H75</f>
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <f>Instructions!I75</f>
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <f>Instructions!J75</f>
-        <v>0</v>
-      </c>
-      <c r="G68" t="str">
-        <f>Instructions!K75</f>
-        <v>Entered</v>
-      </c>
-      <c r="H68" s="1">
-        <f>IF(ISBLANK(Instructions!L75),"",Instructions!L75)</f>
-        <v>45804</v>
-      </c>
-      <c r="I68" t="str">
-        <f>IF(ISBLANK(Instructions!M75),"",Instructions!M75)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J68" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N75),"",Instructions!N75)</f>
-        <v/>
-      </c>
-      <c r="K68" t="str">
-        <f>IF(ISBLANK(Instructions!O75),"",Instructions!O75)</f>
-        <v/>
-      </c>
-      <c r="L68" t="str">
-        <f>IF(ISBLANK(Instructions!P75),"",Instructions!P75)</f>
-        <v/>
-      </c>
-      <c r="M68" t="str">
-        <f>Instructions!Q75</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="str">
-        <f>_xlfn.CONCAT(Instructions!C76,Instructions!D76,"D",TEXT(Instructions!B76,"YY"),TEXT(Instructions!B76,"MM"),"-",TEXT(Instructions!F76,"00"))</f>
-        <v>LXND2505-48</v>
-      </c>
-      <c r="B69" t="str" cm="1">
-        <f t="array" ref="B69">_xlfn.CONCAT(Instructions!C76,Instructions!A76,"_",TEXT(Instructions!B76,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C76)*(Table1[SectionName]=Instructions!D76)*(Table1[StationNumber]=Instructions!E76)*(Instructions!B76&gt;Table1[StartDate])*(Instructions!B76&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C69">
-        <f>Instructions!G76</f>
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <f>Instructions!H76</f>
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <f>Instructions!I76</f>
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <f>Instructions!J76</f>
-        <v>0</v>
-      </c>
-      <c r="G69" t="str">
-        <f>Instructions!K76</f>
-        <v>Entered</v>
-      </c>
-      <c r="H69" s="1">
-        <f>IF(ISBLANK(Instructions!L76),"",Instructions!L76)</f>
-        <v>45804</v>
-      </c>
-      <c r="I69" t="str">
-        <f>IF(ISBLANK(Instructions!M76),"",Instructions!M76)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J69" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N76),"",Instructions!N76)</f>
-        <v/>
-      </c>
-      <c r="K69" t="str">
-        <f>IF(ISBLANK(Instructions!O76),"",Instructions!O76)</f>
-        <v/>
-      </c>
-      <c r="L69" t="str">
-        <f>IF(ISBLANK(Instructions!P76),"",Instructions!P76)</f>
-        <v/>
-      </c>
-      <c r="M69" t="str">
-        <f>Instructions!Q76</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="str">
-        <f>_xlfn.CONCAT(Instructions!C77,Instructions!D77,"D",TEXT(Instructions!B77,"YY"),TEXT(Instructions!B77,"MM"),"-",TEXT(Instructions!F77,"00"))</f>
-        <v>LXND2505-49</v>
-      </c>
-      <c r="B70" t="str" cm="1">
-        <f t="array" ref="B70">_xlfn.CONCAT(Instructions!C77,Instructions!A77,"_",TEXT(Instructions!B77,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C77)*(Table1[SectionName]=Instructions!D77)*(Table1[StationNumber]=Instructions!E77)*(Instructions!B77&gt;Table1[StartDate])*(Instructions!B77&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C70">
-        <f>Instructions!G77</f>
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <f>Instructions!H77</f>
-        <v>0</v>
-      </c>
-      <c r="E70">
-        <f>Instructions!I77</f>
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <f>Instructions!J77</f>
-        <v>0</v>
-      </c>
-      <c r="G70" t="str">
-        <f>Instructions!K77</f>
-        <v>Entered</v>
-      </c>
-      <c r="H70" s="1">
-        <f>IF(ISBLANK(Instructions!L77),"",Instructions!L77)</f>
-        <v>45804</v>
-      </c>
-      <c r="I70" t="str">
-        <f>IF(ISBLANK(Instructions!M77),"",Instructions!M77)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J70" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N77),"",Instructions!N77)</f>
-        <v/>
-      </c>
-      <c r="K70" t="str">
-        <f>IF(ISBLANK(Instructions!O77),"",Instructions!O77)</f>
-        <v/>
-      </c>
-      <c r="L70" t="str">
-        <f>IF(ISBLANK(Instructions!P77),"",Instructions!P77)</f>
-        <v/>
-      </c>
-      <c r="M70" t="str">
-        <f>Instructions!Q77</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="str">
-        <f>_xlfn.CONCAT(Instructions!C78,Instructions!D78,"D",TEXT(Instructions!B78,"YY"),TEXT(Instructions!B78,"MM"),"-",TEXT(Instructions!F78,"00"))</f>
-        <v>LXND2505-50</v>
-      </c>
-      <c r="B71" t="str" cm="1">
-        <f t="array" ref="B71">_xlfn.CONCAT(Instructions!C78,Instructions!A78,"_",TEXT(Instructions!B78,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C78)*(Table1[SectionName]=Instructions!D78)*(Table1[StationNumber]=Instructions!E78)*(Instructions!B78&gt;Table1[StartDate])*(Instructions!B78&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C71">
-        <f>Instructions!G78</f>
-        <v>0</v>
-      </c>
-      <c r="D71">
-        <f>Instructions!H78</f>
-        <v>0</v>
-      </c>
-      <c r="E71">
-        <f>Instructions!I78</f>
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <f>Instructions!J78</f>
-        <v>0</v>
-      </c>
-      <c r="G71" t="str">
-        <f>Instructions!K78</f>
-        <v>Entered</v>
-      </c>
-      <c r="H71" s="1">
-        <f>IF(ISBLANK(Instructions!L78),"",Instructions!L78)</f>
-        <v>45804</v>
-      </c>
-      <c r="I71" t="str">
-        <f>IF(ISBLANK(Instructions!M78),"",Instructions!M78)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J71" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N78),"",Instructions!N78)</f>
-        <v/>
-      </c>
-      <c r="K71" t="str">
-        <f>IF(ISBLANK(Instructions!O78),"",Instructions!O78)</f>
-        <v/>
-      </c>
-      <c r="L71" t="str">
-        <f>IF(ISBLANK(Instructions!P78),"",Instructions!P78)</f>
-        <v/>
-      </c>
-      <c r="M71" t="str">
-        <f>Instructions!Q78</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="str">
-        <f>_xlfn.CONCAT(Instructions!C79,Instructions!D79,"D",TEXT(Instructions!B79,"YY"),TEXT(Instructions!B79,"MM"),"-",TEXT(Instructions!F79,"00"))</f>
-        <v>LXND2505-51</v>
-      </c>
-      <c r="B72" t="str" cm="1">
-        <f t="array" ref="B72">_xlfn.CONCAT(Instructions!C79,Instructions!A79,"_",TEXT(Instructions!B79,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C79)*(Table1[SectionName]=Instructions!D79)*(Table1[StationNumber]=Instructions!E79)*(Instructions!B79&gt;Table1[StartDate])*(Instructions!B79&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C72">
-        <f>Instructions!G79</f>
-        <v>0</v>
-      </c>
-      <c r="D72">
-        <f>Instructions!H79</f>
-        <v>0</v>
-      </c>
-      <c r="E72">
-        <f>Instructions!I79</f>
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <f>Instructions!J79</f>
-        <v>0</v>
-      </c>
-      <c r="G72" t="str">
-        <f>Instructions!K79</f>
-        <v>Entered</v>
-      </c>
-      <c r="H72" s="1">
-        <f>IF(ISBLANK(Instructions!L79),"",Instructions!L79)</f>
-        <v>45804</v>
-      </c>
-      <c r="I72" t="str">
-        <f>IF(ISBLANK(Instructions!M79),"",Instructions!M79)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J72" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N79),"",Instructions!N79)</f>
-        <v/>
-      </c>
-      <c r="K72" t="str">
-        <f>IF(ISBLANK(Instructions!O79),"",Instructions!O79)</f>
-        <v/>
-      </c>
-      <c r="L72" t="str">
-        <f>IF(ISBLANK(Instructions!P79),"",Instructions!P79)</f>
-        <v/>
-      </c>
-      <c r="M72" t="str">
-        <f>Instructions!Q79</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" t="str">
-        <f>_xlfn.CONCAT(Instructions!C80,Instructions!D80,"D",TEXT(Instructions!B80,"YY"),TEXT(Instructions!B80,"MM"),"-",TEXT(Instructions!F80,"00"))</f>
-        <v>LXND2505-52</v>
-      </c>
-      <c r="B73" t="str" cm="1">
-        <f t="array" ref="B73">_xlfn.CONCAT(Instructions!C80,Instructions!A80,"_",TEXT(Instructions!B80,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C80)*(Table1[SectionName]=Instructions!D80)*(Table1[StationNumber]=Instructions!E80)*(Instructions!B80&gt;Table1[StartDate])*(Instructions!B80&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C73">
-        <f>Instructions!G80</f>
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <f>Instructions!H80</f>
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <f>Instructions!I80</f>
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <f>Instructions!J80</f>
-        <v>0</v>
-      </c>
-      <c r="G73" t="str">
-        <f>Instructions!K80</f>
-        <v>Entered</v>
-      </c>
-      <c r="H73" s="1">
-        <f>IF(ISBLANK(Instructions!L80),"",Instructions!L80)</f>
-        <v>45804</v>
-      </c>
-      <c r="I73" t="str">
-        <f>IF(ISBLANK(Instructions!M80),"",Instructions!M80)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J73" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N80),"",Instructions!N80)</f>
-        <v/>
-      </c>
-      <c r="K73" t="str">
-        <f>IF(ISBLANK(Instructions!O80),"",Instructions!O80)</f>
-        <v/>
-      </c>
-      <c r="L73" t="str">
-        <f>IF(ISBLANK(Instructions!P80),"",Instructions!P80)</f>
-        <v/>
-      </c>
-      <c r="M73" t="str">
-        <f>Instructions!Q80</f>
-        <v>Added via SMSS</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" t="str">
-        <f>_xlfn.CONCAT(Instructions!C81,Instructions!D81,"D",TEXT(Instructions!B81,"YY"),TEXT(Instructions!B81,"MM"),"-",TEXT(Instructions!F81,"00"))</f>
-        <v>LXND2505-53</v>
-      </c>
-      <c r="B74" t="str" cm="1">
-        <f t="array" ref="B74">_xlfn.CONCAT(Instructions!C81,Instructions!A81,"_",TEXT(Instructions!B81,"YYYYMMDD"),"_1_",INDEX(Table1[], MATCH(1,(Table1[Estuary]=Instructions!C81)*(Table1[SectionName]=Instructions!D81)*(Table1[StationNumber]=Instructions!E81)*(Instructions!B81&gt;Table1[StartDate])*(Instructions!B81&lt;Table1[EndDate]),0),1),"_1")</f>
-        <v>LXCOLL_20250506_1_0244_1</v>
-      </c>
-      <c r="C74">
-        <f>Instructions!G81</f>
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <f>Instructions!H81</f>
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <f>Instructions!I81</f>
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <f>Instructions!J81</f>
-        <v>0</v>
-      </c>
-      <c r="G74" t="str">
-        <f>Instructions!K81</f>
-        <v>Entered</v>
-      </c>
-      <c r="H74" s="1">
-        <f>IF(ISBLANK(Instructions!L81),"",Instructions!L81)</f>
-        <v>45804</v>
-      </c>
-      <c r="I74" t="str">
-        <f>IF(ISBLANK(Instructions!M81),"",Instructions!M81)</f>
-        <v>Lily Harmon</v>
-      </c>
-      <c r="J74" s="1" t="str">
-        <f>IF(ISBLANK(Instructions!N81),"",Instructions!N81)</f>
-        <v/>
-      </c>
-      <c r="K74" t="str">
-        <f>IF(ISBLANK(Instructions!O81),"",Instructions!O81)</f>
-        <v/>
-      </c>
-      <c r="L74" t="str">
-        <f>IF(ISBLANK(Instructions!P81),"",Instructions!P81)</f>
-        <v/>
-      </c>
-      <c r="M74" t="str">
-        <f>Instructions!Q81</f>
         <v>Added via SMSS</v>
       </c>
     </row>
